--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ECDCB3-B9F2-4C4E-AFCC-856019316A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229B3C6-B7C0-4404-A1B4-396FCDE6D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
     <sheet name="baking_13" sheetId="3" r:id="rId2"/>
+    <sheet name="baking_16" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="394">
   <si>
     <t>No</t>
   </si>
@@ -749,14 +750,474 @@
   </si>
   <si>
     <t>14/12/24</t>
+  </si>
+  <si>
+    <t>MF49B0257</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306K</t>
+  </si>
+  <si>
+    <t>16/12/24</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306J</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306H</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306F</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306E</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306C</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3066</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3068</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306A</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3072</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3070</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306Z</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306W</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306V</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306S</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306N</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306M</t>
+  </si>
+  <si>
+    <t>MF49C0095</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303W</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303T</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303R</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303P</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303M</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303J</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303G</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303E</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303B</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302Z</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302W</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302T</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302R</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302N</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302L</t>
+  </si>
+  <si>
+    <t>0HC1F5849C302H</t>
+  </si>
+  <si>
+    <t>MF49C0127</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304D</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304C</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304B</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3049</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3047</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3045</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3043</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3041</t>
+  </si>
+  <si>
+    <t>0HC1F5849C303Z</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304X</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304T</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304R</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304N</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304L</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304J</t>
+  </si>
+  <si>
+    <t>0HC1F5849C304G</t>
+  </si>
+  <si>
+    <t>MF49C0190</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307X</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307W</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307V</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307T</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307R</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307P</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307N</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307E</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3079</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3075</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306T</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3070</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306P</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306R</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306W</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306Y</t>
+  </si>
+  <si>
+    <t>MF4990163</t>
+  </si>
+  <si>
+    <t>0KC1FKH499302B</t>
+  </si>
+  <si>
+    <t>0KC1FKH499302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993029</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993028</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993027</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993026</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993025</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993024</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993022</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993023</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993021</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993020</t>
+  </si>
+  <si>
+    <t>0KC1FKH499301Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH499301Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH499301X</t>
+  </si>
+  <si>
+    <t>0KC1FKH499301W</t>
+  </si>
+  <si>
+    <t>0KC1FKH499301R</t>
+  </si>
+  <si>
+    <t>0KC1FKH499301T</t>
+  </si>
+  <si>
+    <t>MF49A0201</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3026</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3025</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3024</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3023</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3022</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3021</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3020</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301P</t>
+  </si>
+  <si>
+    <t>MF49C0056</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3016</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3015</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3014</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3013</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3012</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3011</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3010</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300Y</t>
+  </si>
+  <si>
+    <t>MF49B0195</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3029</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3028</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3023</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3027</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3026</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3025</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-13809]dd/mm/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -820,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,12 +1318,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3355,7 +3829,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3366,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7614,11 +8088,4272 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F3:F146 H3:H146" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A836090B-1D84-488F-9E82-01BA25B98056}">
+  <dimension ref="A1:I146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H75" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H76" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I76" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H77" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I77" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H78" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H79" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H80" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I80" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E81" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H81" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H82" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H83" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I83" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H84" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I84" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E85" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H85" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I85" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E86" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H86" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I86" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H87" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I87" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E88" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H88" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I88" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E89" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H89" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I89" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E90" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H90" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I90" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H91" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I91" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E92" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H92" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I92" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E93" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H93" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I93" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E94" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H94" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I94" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E95" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H95" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I95" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E96" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H96" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I96" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E97" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H97" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I97" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E98" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H98" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I98" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E99" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H99" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I99" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H100" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I100" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E101" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H101" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I101" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E102" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H102" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I102" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E103" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H103" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I103" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E104" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G104" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H104" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I104" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E105" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G105" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H105" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I105" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H106" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I106" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E107" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G107" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H107" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I107" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H108" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I108" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H109" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I109" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E110" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G110" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H110" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I110" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E111" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G111" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H111" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I111" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E112" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G112" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H112" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I112" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E113" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G113" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H113" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I113" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E114" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G114" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H114" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I114" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E115" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G115" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H115" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I115" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E116" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H116" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I116" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E117" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G117" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H117" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I117" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E118" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G118" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H118" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I118" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E119" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G119" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H119" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I119" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E120" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G120" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H120" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I120" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E121" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G121" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H121" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I121" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E122" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G122" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H122" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I122" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G123" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H123" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I123" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E124" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G124" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H124" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I124" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H125" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I125" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E126" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H126" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I126" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E127" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H127" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I127" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E128" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G128" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H128" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I128" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E129" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G129" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H129" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I129" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E130" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G130" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H130" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I130" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E131" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G131" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H131" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I131" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E132" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G132" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H132" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I132" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E133" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G133" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H133" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I133" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G134" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H134" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I134" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E135" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G135" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H135" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I135" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E136" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G136" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H136" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I136" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E137" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G137" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H137" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I137" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E138" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G138" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H138" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I138" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G139" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H139" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I139" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G140" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H140" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I140" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E141" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G141" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H141" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I141" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E142" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G142" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H142" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I142" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E143" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G143" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H143" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I143" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E144" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G144" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H144" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I144" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="7">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E145" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G145" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H145" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I145" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G146" s="10">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="H146" s="14">
+        <v>45643</v>
+      </c>
+      <c r="I146" s="10">
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:I146" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9229B3C6-B7C0-4404-A1B4-396FCDE6D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9D4F8D-7A43-4DE9-B1EA-CC48F20651F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
     <sheet name="baking_13" sheetId="3" r:id="rId2"/>
     <sheet name="baking_16" sheetId="4" r:id="rId3"/>
+    <sheet name="baking_17" sheetId="5" r:id="rId4"/>
+    <sheet name="baking_18" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="548">
   <si>
     <t>No</t>
   </si>
@@ -1209,6 +1211,468 @@
   </si>
   <si>
     <t>0KC1FKH49B302D</t>
+  </si>
+  <si>
+    <t>MF49B0228</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304Y</t>
+  </si>
+  <si>
+    <t>17/12/24</t>
+  </si>
+  <si>
+    <t>18/12/24</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304W</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304T</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304R</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304P</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304M</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304J</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304F</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304D</t>
+  </si>
+  <si>
+    <t>0HC1F5849B304A</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3048</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3046</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3043</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3041</t>
+  </si>
+  <si>
+    <t>0HC1F5849B303Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3040</t>
+  </si>
+  <si>
+    <t>0HC1F5849B303Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849B303R</t>
+  </si>
+  <si>
+    <t>MF49B0083</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300V</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300T</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300S</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300R</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300P</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300N</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300J</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300M</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300K</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300H</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300G</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300E</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300D</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300C</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300B</t>
+  </si>
+  <si>
+    <t>0HC1F5849B300A</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3009</t>
+  </si>
+  <si>
+    <t>MF49B0265</t>
+  </si>
+  <si>
+    <t>0HC1F5849B308F</t>
+  </si>
+  <si>
+    <t>0HC1F5849B308B</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3088</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3084</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3081</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307V</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307R</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307P</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307N</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307M</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307L</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307K</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307J</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307H</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307G</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307F</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307E</t>
+  </si>
+  <si>
+    <t>MF49C0215</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3087</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3085</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3084</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307H</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3081</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3080</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307Z</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307K</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3077</t>
+  </si>
+  <si>
+    <t>0HC1F5849C308C</t>
+  </si>
+  <si>
+    <t>0HC1F5849C308B</t>
+  </si>
+  <si>
+    <t>0HC1F5849C308A</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3054</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3089</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3083</t>
+  </si>
+  <si>
+    <t>0HC1F5849C307S</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3088</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3082</t>
+  </si>
+  <si>
+    <t>MF49B0084</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A304A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3049</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3048</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3047</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3046</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3045</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3044</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3028</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3043</t>
+  </si>
+  <si>
+    <t>MF49B0078</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3009</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3008</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3007</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3006</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3005</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3002</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3001</t>
+  </si>
+  <si>
+    <t>MF49A0153</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3013</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3012</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3011</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3010</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300L</t>
+  </si>
+  <si>
+    <t>MF49A0166</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A301A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3019</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3018</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3017</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3016</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3015</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3014</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1681,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-13809]dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-13809]dd/mm/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1253,7 +1717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1276,12 +1740,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,18 +1801,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1687,36 +2195,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3829,7 +4337,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3840,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A137" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3858,36 +4366,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -8088,7 +8596,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -8101,8 +8609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A836090B-1D84-488F-9E82-01BA25B98056}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8119,36 +8627,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -10272,7 +10780,7 @@
       <c r="G75" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <v>45643</v>
       </c>
       <c r="I75" s="10">
@@ -10301,7 +10809,7 @@
       <c r="G76" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <v>45643</v>
       </c>
       <c r="I76" s="10">
@@ -10330,7 +10838,7 @@
       <c r="G77" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>45643</v>
       </c>
       <c r="I77" s="10">
@@ -10359,7 +10867,7 @@
       <c r="G78" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>45643</v>
       </c>
       <c r="I78" s="10">
@@ -10388,7 +10896,7 @@
       <c r="G79" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>45643</v>
       </c>
       <c r="I79" s="10">
@@ -10417,7 +10925,7 @@
       <c r="G80" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>45643</v>
       </c>
       <c r="I80" s="10">
@@ -10446,7 +10954,7 @@
       <c r="G81" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="13">
         <v>45643</v>
       </c>
       <c r="I81" s="10">
@@ -10475,7 +10983,7 @@
       <c r="G82" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <v>45643</v>
       </c>
       <c r="I82" s="10">
@@ -10504,7 +11012,7 @@
       <c r="G83" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>45643</v>
       </c>
       <c r="I83" s="10">
@@ -10533,7 +11041,7 @@
       <c r="G84" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <v>45643</v>
       </c>
       <c r="I84" s="10">
@@ -10562,7 +11070,7 @@
       <c r="G85" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <v>45643</v>
       </c>
       <c r="I85" s="10">
@@ -10591,7 +11099,7 @@
       <c r="G86" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>45643</v>
       </c>
       <c r="I86" s="10">
@@ -10620,7 +11128,7 @@
       <c r="G87" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="13">
         <v>45643</v>
       </c>
       <c r="I87" s="10">
@@ -10649,7 +11157,7 @@
       <c r="G88" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <v>45643</v>
       </c>
       <c r="I88" s="10">
@@ -10678,7 +11186,7 @@
       <c r="G89" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <v>45643</v>
       </c>
       <c r="I89" s="10">
@@ -10707,7 +11215,7 @@
       <c r="G90" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>45643</v>
       </c>
       <c r="I90" s="10">
@@ -10736,7 +11244,7 @@
       <c r="G91" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>45643</v>
       </c>
       <c r="I91" s="10">
@@ -10765,7 +11273,7 @@
       <c r="G92" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="13">
         <v>45643</v>
       </c>
       <c r="I92" s="10">
@@ -10794,7 +11302,7 @@
       <c r="G93" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>45643</v>
       </c>
       <c r="I93" s="10">
@@ -10823,7 +11331,7 @@
       <c r="G94" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="13">
         <v>45643</v>
       </c>
       <c r="I94" s="10">
@@ -10852,7 +11360,7 @@
       <c r="G95" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H95" s="13">
         <v>45643</v>
       </c>
       <c r="I95" s="10">
@@ -10881,7 +11389,7 @@
       <c r="G96" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>45643</v>
       </c>
       <c r="I96" s="10">
@@ -10910,7 +11418,7 @@
       <c r="G97" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>45643</v>
       </c>
       <c r="I97" s="10">
@@ -10939,7 +11447,7 @@
       <c r="G98" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>45643</v>
       </c>
       <c r="I98" s="10">
@@ -10968,7 +11476,7 @@
       <c r="G99" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>45643</v>
       </c>
       <c r="I99" s="10">
@@ -10997,7 +11505,7 @@
       <c r="G100" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>45643</v>
       </c>
       <c r="I100" s="10">
@@ -11026,7 +11534,7 @@
       <c r="G101" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="13">
         <v>45643</v>
       </c>
       <c r="I101" s="10">
@@ -11055,7 +11563,7 @@
       <c r="G102" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H102" s="14">
+      <c r="H102" s="13">
         <v>45643</v>
       </c>
       <c r="I102" s="10">
@@ -11084,7 +11592,7 @@
       <c r="G103" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="13">
         <v>45643</v>
       </c>
       <c r="I103" s="10">
@@ -11113,7 +11621,7 @@
       <c r="G104" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>45643</v>
       </c>
       <c r="I104" s="10">
@@ -11142,7 +11650,7 @@
       <c r="G105" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>45643</v>
       </c>
       <c r="I105" s="10">
@@ -11171,7 +11679,7 @@
       <c r="G106" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>45643</v>
       </c>
       <c r="I106" s="10">
@@ -11200,7 +11708,7 @@
       <c r="G107" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>45643</v>
       </c>
       <c r="I107" s="10">
@@ -11229,7 +11737,7 @@
       <c r="G108" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="13">
         <v>45643</v>
       </c>
       <c r="I108" s="10">
@@ -11258,7 +11766,7 @@
       <c r="G109" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H109" s="13">
         <v>45643</v>
       </c>
       <c r="I109" s="10">
@@ -11287,7 +11795,7 @@
       <c r="G110" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H110" s="13">
         <v>45643</v>
       </c>
       <c r="I110" s="10">
@@ -11316,7 +11824,7 @@
       <c r="G111" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H111" s="14">
+      <c r="H111" s="13">
         <v>45643</v>
       </c>
       <c r="I111" s="10">
@@ -11345,7 +11853,7 @@
       <c r="G112" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="13">
         <v>45643</v>
       </c>
       <c r="I112" s="10">
@@ -11374,7 +11882,7 @@
       <c r="G113" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H113" s="13">
         <v>45643</v>
       </c>
       <c r="I113" s="10">
@@ -11403,7 +11911,7 @@
       <c r="G114" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="13">
         <v>45643</v>
       </c>
       <c r="I114" s="10">
@@ -11432,7 +11940,7 @@
       <c r="G115" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H115" s="14">
+      <c r="H115" s="13">
         <v>45643</v>
       </c>
       <c r="I115" s="10">
@@ -11461,7 +11969,7 @@
       <c r="G116" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H116" s="14">
+      <c r="H116" s="13">
         <v>45643</v>
       </c>
       <c r="I116" s="10">
@@ -11490,7 +11998,7 @@
       <c r="G117" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H117" s="14">
+      <c r="H117" s="13">
         <v>45643</v>
       </c>
       <c r="I117" s="10">
@@ -11519,7 +12027,7 @@
       <c r="G118" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="13">
         <v>45643</v>
       </c>
       <c r="I118" s="10">
@@ -11548,7 +12056,7 @@
       <c r="G119" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="13">
         <v>45643</v>
       </c>
       <c r="I119" s="10">
@@ -11577,7 +12085,7 @@
       <c r="G120" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="13">
         <v>45643</v>
       </c>
       <c r="I120" s="10">
@@ -11606,7 +12114,7 @@
       <c r="G121" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="13">
         <v>45643</v>
       </c>
       <c r="I121" s="10">
@@ -11635,7 +12143,7 @@
       <c r="G122" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H122" s="13">
         <v>45643</v>
       </c>
       <c r="I122" s="10">
@@ -11664,7 +12172,7 @@
       <c r="G123" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H123" s="13">
         <v>45643</v>
       </c>
       <c r="I123" s="10">
@@ -11693,7 +12201,7 @@
       <c r="G124" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H124" s="13">
         <v>45643</v>
       </c>
       <c r="I124" s="10">
@@ -11722,7 +12230,7 @@
       <c r="G125" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H125" s="14">
+      <c r="H125" s="13">
         <v>45643</v>
       </c>
       <c r="I125" s="10">
@@ -11751,7 +12259,7 @@
       <c r="G126" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H126" s="14">
+      <c r="H126" s="13">
         <v>45643</v>
       </c>
       <c r="I126" s="10">
@@ -11780,7 +12288,7 @@
       <c r="G127" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H127" s="14">
+      <c r="H127" s="13">
         <v>45643</v>
       </c>
       <c r="I127" s="10">
@@ -11809,7 +12317,7 @@
       <c r="G128" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H128" s="13">
         <v>45643</v>
       </c>
       <c r="I128" s="10">
@@ -11838,7 +12346,7 @@
       <c r="G129" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H129" s="14">
+      <c r="H129" s="13">
         <v>45643</v>
       </c>
       <c r="I129" s="10">
@@ -11867,7 +12375,7 @@
       <c r="G130" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H130" s="13">
         <v>45643</v>
       </c>
       <c r="I130" s="10">
@@ -11896,7 +12404,7 @@
       <c r="G131" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H131" s="13">
         <v>45643</v>
       </c>
       <c r="I131" s="10">
@@ -11925,7 +12433,7 @@
       <c r="G132" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H132" s="14">
+      <c r="H132" s="13">
         <v>45643</v>
       </c>
       <c r="I132" s="10">
@@ -11954,7 +12462,7 @@
       <c r="G133" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H133" s="14">
+      <c r="H133" s="13">
         <v>45643</v>
       </c>
       <c r="I133" s="10">
@@ -11983,7 +12491,7 @@
       <c r="G134" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H134" s="14">
+      <c r="H134" s="13">
         <v>45643</v>
       </c>
       <c r="I134" s="10">
@@ -12012,7 +12520,7 @@
       <c r="G135" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H135" s="13">
         <v>45643</v>
       </c>
       <c r="I135" s="10">
@@ -12041,7 +12549,7 @@
       <c r="G136" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H136" s="14">
+      <c r="H136" s="13">
         <v>45643</v>
       </c>
       <c r="I136" s="10">
@@ -12070,7 +12578,7 @@
       <c r="G137" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H137" s="14">
+      <c r="H137" s="13">
         <v>45643</v>
       </c>
       <c r="I137" s="10">
@@ -12099,7 +12607,7 @@
       <c r="G138" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H138" s="14">
+      <c r="H138" s="13">
         <v>45643</v>
       </c>
       <c r="I138" s="10">
@@ -12128,7 +12636,7 @@
       <c r="G139" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H139" s="14">
+      <c r="H139" s="13">
         <v>45643</v>
       </c>
       <c r="I139" s="10">
@@ -12157,7 +12665,7 @@
       <c r="G140" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H140" s="14">
+      <c r="H140" s="13">
         <v>45643</v>
       </c>
       <c r="I140" s="10">
@@ -12186,7 +12694,7 @@
       <c r="G141" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H141" s="14">
+      <c r="H141" s="13">
         <v>45643</v>
       </c>
       <c r="I141" s="10">
@@ -12215,7 +12723,7 @@
       <c r="G142" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H142" s="14">
+      <c r="H142" s="13">
         <v>45643</v>
       </c>
       <c r="I142" s="10">
@@ -12244,7 +12752,7 @@
       <c r="G143" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H143" s="13">
         <v>45643</v>
       </c>
       <c r="I143" s="10">
@@ -12273,7 +12781,7 @@
       <c r="G144" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H144" s="14">
+      <c r="H144" s="13">
         <v>45643</v>
       </c>
       <c r="I144" s="10">
@@ -12302,7 +12810,7 @@
       <c r="G145" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H145" s="14">
+      <c r="H145" s="13">
         <v>45643</v>
       </c>
       <c r="I145" s="10">
@@ -12331,12 +12839,4070 @@
       <c r="G146" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H146" s="13">
         <v>45643</v>
       </c>
       <c r="I146" s="10">
         <v>0.34027777777777779</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:I146" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78193475-AAD8-4321-A269-9105EF47F6A1}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E74" s="14">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E75" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89FE45D-4AA5-4CA0-BB33-3B7270B8095F}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12352,8 +16918,5 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:I146" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9D4F8D-7A43-4DE9-B1EA-CC48F20651F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5AE26-04A9-4614-9BE9-EF5D85F68154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="baking_16" sheetId="4" r:id="rId3"/>
     <sheet name="baking_17" sheetId="5" r:id="rId4"/>
     <sheet name="baking_18" sheetId="7" r:id="rId5"/>
+    <sheet name="baking_19" sheetId="9" r:id="rId6"/>
+    <sheet name="baking_20" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="701">
   <si>
     <t>No</t>
   </si>
@@ -1673,6 +1675,465 @@
   </si>
   <si>
     <t>0KC1FKH49A3014</t>
+  </si>
+  <si>
+    <t>MF4990111</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300K</t>
+  </si>
+  <si>
+    <t>19/12/24</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993009</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993008</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301E</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301D</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301B</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301A</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983019</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983018</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983017</t>
+  </si>
+  <si>
+    <t>MF4980075</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983016</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983015</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983014</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983013</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983012</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983011</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983010</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300M</t>
+  </si>
+  <si>
+    <t>MF49B0176</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3022</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3021</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3020</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301J</t>
+  </si>
+  <si>
+    <t>MF49C0143</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3027</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3028</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3026</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3025</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3024</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3023</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3022</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3021</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3020</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301V</t>
+  </si>
+  <si>
+    <t>MF49B0259</t>
+  </si>
+  <si>
+    <t>0HC1F5849B307D</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3079</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3077</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3075</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3073</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3071</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306X</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306T</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306R</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306P</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306L</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306G</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306D</t>
+  </si>
+  <si>
+    <t>0HC1F5849B306B</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3069</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3067</t>
+  </si>
+  <si>
+    <t>0HC1F5849B3065</t>
+  </si>
+  <si>
+    <t>MF49C0062</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3012</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3011</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3010</t>
+  </si>
+  <si>
+    <t>0HC1F5849C300Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849C300X</t>
+  </si>
+  <si>
+    <t>0HC1F5849C300Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849C300H</t>
+  </si>
+  <si>
+    <t>0HC1F5849C300G</t>
+  </si>
+  <si>
+    <t>0HC1F5849C300D</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3008</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3004</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3003</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3002</t>
+  </si>
+  <si>
+    <t>0HC1F5849B309Z</t>
+  </si>
+  <si>
+    <t>0HC1F5849B309Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849B309X</t>
+  </si>
+  <si>
+    <t>0HC1F5849B309S</t>
+  </si>
+  <si>
+    <t>0HC1F5849B309Q</t>
+  </si>
+  <si>
+    <t>MF4980193</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983038</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983036</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983035</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983034</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983030</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302W</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983031</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983033</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303H</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303G</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303F</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303D</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303C</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303B</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303A</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983039</t>
+  </si>
+  <si>
+    <t>MF49E0073</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3009</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3008</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3007</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3006</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3005</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3002</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3001</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303G</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +2275,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4337,7 +4818,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8596,7 +9077,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -12857,7 +13338,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15033,7 +15514,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15043,8 +15524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89FE45D-4AA5-4CA0-BB33-3B7270B8095F}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15057,7 +15538,7 @@
     <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -15126,8 +15607,12 @@
       <c r="G3" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -15151,8 +15636,12 @@
       <c r="G4" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
@@ -15176,8 +15665,12 @@
       <c r="G5" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -15201,8 +15694,12 @@
       <c r="G6" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -15226,8 +15723,12 @@
       <c r="G7" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -15251,8 +15752,12 @@
       <c r="G8" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -15276,8 +15781,12 @@
       <c r="G9" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -15301,8 +15810,12 @@
       <c r="G10" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -15326,8 +15839,12 @@
       <c r="G11" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -15351,8 +15868,12 @@
       <c r="G12" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -15376,8 +15897,12 @@
       <c r="G13" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -15401,8 +15926,12 @@
       <c r="G14" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -15426,8 +15955,12 @@
       <c r="G15" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -15451,8 +15984,12 @@
       <c r="G16" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -15476,8 +16013,12 @@
       <c r="G17" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -15501,8 +16042,12 @@
       <c r="G18" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -15526,8 +16071,12 @@
       <c r="G19" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -15551,8 +16100,12 @@
       <c r="G20" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -15576,8 +16129,12 @@
       <c r="G21" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -15601,8 +16158,12 @@
       <c r="G22" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -15626,8 +16187,12 @@
       <c r="G23" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -15651,8 +16216,12 @@
       <c r="G24" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -15676,8 +16245,12 @@
       <c r="G25" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -15701,8 +16274,12 @@
       <c r="G26" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -15726,8 +16303,12 @@
       <c r="G27" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -15751,8 +16332,12 @@
       <c r="G28" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -15776,8 +16361,12 @@
       <c r="G29" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
+      <c r="H29" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -15801,8 +16390,12 @@
       <c r="G30" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -15826,8 +16419,12 @@
       <c r="G31" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -15851,8 +16448,12 @@
       <c r="G32" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -15876,8 +16477,12 @@
       <c r="G33" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="10"/>
+      <c r="H33" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -15901,8 +16506,12 @@
       <c r="G34" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
@@ -15926,8 +16535,12 @@
       <c r="G35" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="10"/>
+      <c r="H35" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -15951,8 +16564,12 @@
       <c r="G36" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="10"/>
+      <c r="H36" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -15976,8 +16593,12 @@
       <c r="G37" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10"/>
+      <c r="H37" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -16001,8 +16622,12 @@
       <c r="G38" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="10"/>
+      <c r="H38" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
@@ -16026,8 +16651,12 @@
       <c r="G39" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="10"/>
+      <c r="H39" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
@@ -16051,8 +16680,12 @@
       <c r="G40" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="10"/>
+      <c r="H40" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
@@ -16076,8 +16709,12 @@
       <c r="G41" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="10"/>
+      <c r="H41" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
@@ -16101,8 +16738,12 @@
       <c r="G42" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="10"/>
+      <c r="H42" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
@@ -16126,8 +16767,12 @@
       <c r="G43" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="10"/>
+      <c r="H43" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
@@ -16151,8 +16796,12 @@
       <c r="G44" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
@@ -16176,8 +16825,12 @@
       <c r="G45" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="10"/>
+      <c r="H45" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
@@ -16201,8 +16854,12 @@
       <c r="G46" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
@@ -16226,8 +16883,12 @@
       <c r="G47" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
+      <c r="H47" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
@@ -16251,8 +16912,12 @@
       <c r="G48" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
@@ -16276,8 +16941,12 @@
       <c r="G49" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="10"/>
+      <c r="H49" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
@@ -16301,8 +16970,12 @@
       <c r="G50" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="10"/>
+      <c r="H50" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
@@ -16326,8 +16999,12 @@
       <c r="G51" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="10"/>
+      <c r="H51" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
@@ -16351,8 +17028,12 @@
       <c r="G52" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="10"/>
+      <c r="H52" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
@@ -16376,8 +17057,12 @@
       <c r="G53" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="10"/>
+      <c r="H53" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
@@ -16401,8 +17086,12 @@
       <c r="G54" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="10"/>
+      <c r="H54" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -16426,8 +17115,12 @@
       <c r="G55" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="10"/>
+      <c r="H55" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
@@ -16451,8 +17144,12 @@
       <c r="G56" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="10"/>
+      <c r="H56" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
@@ -16476,8 +17173,12 @@
       <c r="G57" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="10"/>
+      <c r="H57" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
@@ -16501,8 +17202,12 @@
       <c r="G58" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -16526,8 +17231,12 @@
       <c r="G59" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="10"/>
+      <c r="H59" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
@@ -16551,8 +17260,12 @@
       <c r="G60" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="10"/>
+      <c r="H60" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
@@ -16576,8 +17289,12 @@
       <c r="G61" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="10"/>
+      <c r="H61" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
@@ -16601,8 +17318,12 @@
       <c r="G62" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="10"/>
+      <c r="H62" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
@@ -16626,8 +17347,12 @@
       <c r="G63" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="10"/>
+      <c r="H63" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
@@ -16651,8 +17376,12 @@
       <c r="G64" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="10"/>
+      <c r="H64" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
@@ -16676,8 +17405,12 @@
       <c r="G65" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="10"/>
+      <c r="H65" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -16701,8 +17434,12 @@
       <c r="G66" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="10"/>
+      <c r="H66" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
@@ -16726,8 +17463,12 @@
       <c r="G67" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="10"/>
+      <c r="H67" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -16751,8 +17492,12 @@
       <c r="G68" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="10"/>
+      <c r="H68" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
@@ -16776,8 +17521,12 @@
       <c r="G69" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="10"/>
+      <c r="H69" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -16801,8 +17550,12 @@
       <c r="G70" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="10"/>
+      <c r="H70" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
@@ -16826,8 +17579,12 @@
       <c r="G71" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="10"/>
+      <c r="H71" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
@@ -16851,8 +17608,12 @@
       <c r="G72" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="10"/>
+      <c r="H72" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
@@ -16876,8 +17637,12 @@
       <c r="G73" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="10"/>
+      <c r="H73" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
@@ -16901,8 +17666,2182 @@
       <c r="G74" s="6">
         <v>0.34722222222222227</v>
       </c>
-      <c r="H74" s="13"/>
-      <c r="I74" s="10"/>
+      <c r="H74" s="13">
+        <v>45645</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4E42-F398-4C65-BF3C-2DE2ABC0E541}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H25" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H27" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H30" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H31" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H32" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H36" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H37" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H39" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H40" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H41" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H42" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H43" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H45" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H46" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H47" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H48" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H50" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H51" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H52" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H54" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H55" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H56" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H57" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H58" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H61" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H62" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H63" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H64" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H65" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H68" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H69" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H71" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H72" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H73" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H74" s="13">
+        <v>45646</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16919,4 +19858,2174 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70B6AA-5825-49A8-A25A-422DAEE45532}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H25" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H27" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H30" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H31" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H32" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H36" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H37" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H39" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H40" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H41" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H42" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H43" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H45" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H46" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H47" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H48" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H50" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H51" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H52" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H54" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H55" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H56" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H57" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H58" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H61" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H62" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H63" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H64" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H65" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H68" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H69" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H71" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H72" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H73" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45646</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H74" s="13">
+        <v>45647</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5AE26-04A9-4614-9BE9-EF5D85F68154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF0AD6A-6596-41A8-BA7B-0BABFEFF0F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="baking_18" sheetId="7" r:id="rId5"/>
     <sheet name="baking_19" sheetId="9" r:id="rId6"/>
     <sheet name="baking_20" sheetId="10" r:id="rId7"/>
+    <sheet name="baking_23" sheetId="11" r:id="rId8"/>
+    <sheet name="baking_24" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="854">
   <si>
     <t>No</t>
   </si>
@@ -2134,6 +2136,465 @@
   </si>
   <si>
     <t>0KC1FKH49D303G</t>
+  </si>
+  <si>
+    <t>MF49B0271</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3036</t>
+  </si>
+  <si>
+    <t>Not Yet</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3034</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3033</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3024</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3032</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3031</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3030</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B302X</t>
+  </si>
+  <si>
+    <t>MF4990134</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993014</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993012</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993010</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993011</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300M</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300L</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH499300A</t>
+  </si>
+  <si>
+    <t>MF49D0187</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D303A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3039</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3038</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3034</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3037</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3036</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3035</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3033</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3032</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3031</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3030</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302Y</t>
+  </si>
+  <si>
+    <t>MF49E0103</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E301A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3019</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3018</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3017</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3016</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3015</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3014</t>
+  </si>
+  <si>
+    <t>MF49A0238</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3027</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3042</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3041</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303F</t>
+  </si>
+  <si>
+    <t>MF49D0147</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3022</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3023</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3020</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3021</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3028</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3024</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3025</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3026</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3027</t>
+  </si>
+  <si>
+    <t>MF4980064</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300L</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300K</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300A</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH498300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983008</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983007</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303X</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983006</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983005</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983004</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983003</t>
+  </si>
+  <si>
+    <t>MF49D0003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3002</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3001</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3040</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303K</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2736,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4818,7 +5299,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9077,7 +9558,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -13338,7 +13819,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15514,7 +15995,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17684,7 +18165,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19854,7 +20335,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19864,8 +20345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70B6AA-5825-49A8-A25A-422DAEE45532}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22024,7 +22505,4345 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17257125-1BD0-4550-94C7-57FF94F3BCF1}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H25" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H27" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H30" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H31" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H32" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H36" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H37" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H39" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H40" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H41" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H42" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H43" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H45" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H46" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H47" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H48" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H50" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H51" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H52" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H54" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H55" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H56" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H57" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H58" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H61" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H62" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H63" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H64" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H65" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H68" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H69" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H71" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H72" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H73" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45649</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H74" s="13">
+        <v>45650</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7668B-842D-4169-B0C5-15301A67D144}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45650</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF0AD6A-6596-41A8-BA7B-0BABFEFF0F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97710F6-519E-4934-9D4C-A983DCFDEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="baking_20" sheetId="10" r:id="rId7"/>
     <sheet name="baking_23" sheetId="11" r:id="rId8"/>
     <sheet name="baking_24" sheetId="12" r:id="rId9"/>
+    <sheet name="baking_26" sheetId="14" r:id="rId10"/>
+    <sheet name="baking_27" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1005">
   <si>
     <t>No</t>
   </si>
@@ -2144,9 +2146,6 @@
     <t>0KC1FKH49B3036</t>
   </si>
   <si>
-    <t>Not Yet</t>
-  </si>
-  <si>
     <t>0KC1FKH49B3034</t>
   </si>
   <si>
@@ -2595,6 +2594,462 @@
   </si>
   <si>
     <t>0KC1FKH49C303K</t>
+  </si>
+  <si>
+    <t>MF4990096</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993007</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993006</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993005</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993004</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993003</t>
+  </si>
+  <si>
+    <t>0KC1FKH4993002</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304K</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304F</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304J</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304G</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304E</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304B</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983049</t>
+  </si>
+  <si>
+    <t>0KC1FKH498304D</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983048</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983046</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983045</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983044</t>
+  </si>
+  <si>
+    <t>MF49A0258</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306F</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306E</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306D</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306C</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306B</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306A</t>
+  </si>
+  <si>
+    <t>0HC1F5849A3069</t>
+  </si>
+  <si>
+    <t>0HC1F5849A3068</t>
+  </si>
+  <si>
+    <t>0HC1F5849A3067</t>
+  </si>
+  <si>
+    <t>0HC1F5849A3066</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306P</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306N</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306M</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306L</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306K</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306J</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306H</t>
+  </si>
+  <si>
+    <t>0HC1F5849A306G</t>
+  </si>
+  <si>
+    <t>MF49C0163</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306M</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306N</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306H</t>
+  </si>
+  <si>
+    <t>0HC1F5849C306F</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3067</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3066</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3063</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3062</t>
+  </si>
+  <si>
+    <t>0HC1F5849C3061</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305Z</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305Y</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305X</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305V</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305T</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305Q</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305R</t>
+  </si>
+  <si>
+    <t>0HC1F5849C305P</t>
+  </si>
+  <si>
+    <t>MF49D0132</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D301A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3019</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3018</t>
+  </si>
+  <si>
+    <t>MF49C0171</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3030</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C302R</t>
+  </si>
+  <si>
+    <t>MF4970121</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973014</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973013</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973012</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973011</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973010</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300M</t>
+  </si>
+  <si>
+    <t>0KC1FKH497300L</t>
+  </si>
+  <si>
+    <t>MF49D0170</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3029</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D302C</t>
+  </si>
+  <si>
+    <t>MF49A0216</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3029</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302L</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +3094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2684,12 +3139,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2728,6 +3194,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2736,7 +3205,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3157,36 +3656,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5299,10 +5798,4353 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1A59D5-162E-48E3-82F4-416F9E5B3A49}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H25" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H27" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H30" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H31" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H32" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H36" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H37" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H39" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H40" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H41" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H42" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H43" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H45" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H46" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H47" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H48" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H50" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H51" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H52" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H54" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H55" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H56" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H57" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H58" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H61" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H62" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H63" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H64" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H65" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H68" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H69" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H71" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H72" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H73" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45652</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H74" s="13">
+        <v>45653</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D74">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3731BA-F9BF-4FA7-A5E9-044C2023A3A0}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H25" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H27" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H30" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H31" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H32" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H36" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H37" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H39" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H40" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H41" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H42" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H43" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H45" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H46" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H47" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H48" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H50" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H51" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H52" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H54" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H55" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H56" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H57" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H58" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H61" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H62" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H63" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H64" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H65" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H68" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H69" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H71" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H72" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H73" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45653</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H74" s="13">
+        <v>45654</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D74">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5328,36 +10170,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -9558,7 +14400,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -9589,36 +14431,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -13819,7 +18661,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -13850,36 +18692,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -15995,7 +20837,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16023,36 +20865,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -18165,7 +23007,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18193,36 +23035,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -20335,7 +25177,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20363,36 +25205,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -22505,7 +27347,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22532,36 +27374,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -22615,7 +27457,7 @@
         <v>701</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E4" s="4">
         <v>801983371</v>
@@ -22644,7 +27486,7 @@
         <v>701</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E5" s="4">
         <v>801983371</v>
@@ -22673,7 +27515,7 @@
         <v>701</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E6" s="4">
         <v>801983371</v>
@@ -22702,7 +27544,7 @@
         <v>701</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="4">
         <v>801983371</v>
@@ -22731,7 +27573,7 @@
         <v>701</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" s="4">
         <v>801983371</v>
@@ -22760,7 +27602,7 @@
         <v>701</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E9" s="4">
         <v>801983371</v>
@@ -22789,7 +27631,7 @@
         <v>701</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="4">
         <v>801983371</v>
@@ -22818,7 +27660,7 @@
         <v>701</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E11" s="4">
         <v>801983371</v>
@@ -22847,7 +27689,7 @@
         <v>701</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E12" s="4">
         <v>801983371</v>
@@ -22876,7 +27718,7 @@
         <v>701</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E13" s="4">
         <v>801983371</v>
@@ -22905,7 +27747,7 @@
         <v>701</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E14" s="4">
         <v>801983371</v>
@@ -22934,7 +27776,7 @@
         <v>701</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E15" s="4">
         <v>801983371</v>
@@ -22963,7 +27805,7 @@
         <v>701</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E16" s="4">
         <v>801983371</v>
@@ -22992,7 +27834,7 @@
         <v>701</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E17" s="4">
         <v>801983371</v>
@@ -23021,7 +27863,7 @@
         <v>701</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E18" s="4">
         <v>801983371</v>
@@ -23050,7 +27892,7 @@
         <v>701</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E19" s="4">
         <v>801983371</v>
@@ -23079,7 +27921,7 @@
         <v>701</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E20" s="4">
         <v>801983371</v>
@@ -23105,10 +27947,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>722</v>
       </c>
       <c r="E21" s="4">
         <v>801983371</v>
@@ -23134,10 +27976,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="4">
         <v>801983371</v>
@@ -23163,10 +28005,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E23" s="4">
         <v>801983371</v>
@@ -23192,10 +28034,10 @@
         <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E24" s="4">
         <v>801983371</v>
@@ -23221,10 +28063,10 @@
         <v>85</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E25" s="4">
         <v>801983371</v>
@@ -23250,10 +28092,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E26" s="4">
         <v>801983371</v>
@@ -23279,10 +28121,10 @@
         <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E27" s="4">
         <v>801983371</v>
@@ -23308,10 +28150,10 @@
         <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E28" s="4">
         <v>801983371</v>
@@ -23337,10 +28179,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E29" s="4">
         <v>801983371</v>
@@ -23366,10 +28208,10 @@
         <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E30" s="4">
         <v>801983371</v>
@@ -23395,10 +28237,10 @@
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E31" s="4">
         <v>801983371</v>
@@ -23424,10 +28266,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E32" s="4">
         <v>801983371</v>
@@ -23453,10 +28295,10 @@
         <v>85</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E33" s="4">
         <v>801983371</v>
@@ -23482,10 +28324,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E34" s="4">
         <v>801983371</v>
@@ -23511,10 +28353,10 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E35" s="4">
         <v>801983371</v>
@@ -23540,10 +28382,10 @@
         <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E36" s="4">
         <v>801983371</v>
@@ -23569,10 +28411,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E37" s="4">
         <v>801983371</v>
@@ -23598,10 +28440,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E38" s="4">
         <v>801983371</v>
@@ -23627,10 +28469,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="E39" s="4">
         <v>801983371</v>
@@ -23656,10 +28498,10 @@
         <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E40" s="4">
         <v>801983371</v>
@@ -23685,10 +28527,10 @@
         <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E41" s="4">
         <v>801983371</v>
@@ -23714,10 +28556,10 @@
         <v>85</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E42" s="4">
         <v>801983371</v>
@@ -23743,10 +28585,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E43" s="4">
         <v>801983371</v>
@@ -23772,10 +28614,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E44" s="4">
         <v>801983371</v>
@@ -23801,10 +28643,10 @@
         <v>85</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E45" s="4">
         <v>801983371</v>
@@ -23830,10 +28672,10 @@
         <v>85</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E46" s="4">
         <v>801983371</v>
@@ -23859,10 +28701,10 @@
         <v>85</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E47" s="4">
         <v>801983371</v>
@@ -23888,10 +28730,10 @@
         <v>85</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E48" s="4">
         <v>801983371</v>
@@ -23917,10 +28759,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E49" s="4">
         <v>801983371</v>
@@ -23946,10 +28788,10 @@
         <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E50" s="4">
         <v>801983371</v>
@@ -23975,10 +28817,10 @@
         <v>85</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E51" s="4">
         <v>801983371</v>
@@ -24004,10 +28846,10 @@
         <v>85</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E52" s="4">
         <v>801983371</v>
@@ -24033,10 +28875,10 @@
         <v>85</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E53" s="4">
         <v>801983371</v>
@@ -24062,10 +28904,10 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E54" s="4">
         <v>801983371</v>
@@ -24091,10 +28933,10 @@
         <v>85</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E55" s="4">
         <v>801983371</v>
@@ -24120,10 +28962,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E56" s="4">
         <v>801983371</v>
@@ -24149,10 +28991,10 @@
         <v>85</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>759</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>760</v>
       </c>
       <c r="E57" s="4">
         <v>801983371</v>
@@ -24178,10 +29020,10 @@
         <v>85</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E58" s="4">
         <v>801983371</v>
@@ -24207,10 +29049,10 @@
         <v>85</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E59" s="4">
         <v>801983371</v>
@@ -24236,10 +29078,10 @@
         <v>85</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E60" s="4">
         <v>801983371</v>
@@ -24265,10 +29107,10 @@
         <v>85</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E61" s="4">
         <v>801983371</v>
@@ -24294,10 +29136,10 @@
         <v>85</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E62" s="4">
         <v>801983371</v>
@@ -24323,10 +29165,10 @@
         <v>85</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E63" s="4">
         <v>801983371</v>
@@ -24352,10 +29194,10 @@
         <v>85</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E64" s="4">
         <v>801983371</v>
@@ -24381,10 +29223,10 @@
         <v>85</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E65" s="4">
         <v>801983371</v>
@@ -24410,10 +29252,10 @@
         <v>85</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E66" s="4">
         <v>801983371</v>
@@ -24439,10 +29281,10 @@
         <v>85</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E67" s="4">
         <v>801983371</v>
@@ -24468,10 +29310,10 @@
         <v>85</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E68" s="4">
         <v>801983371</v>
@@ -24497,10 +29339,10 @@
         <v>85</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E69" s="4">
         <v>801983371</v>
@@ -24526,10 +29368,10 @@
         <v>85</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E70" s="4">
         <v>801983371</v>
@@ -24555,10 +29397,10 @@
         <v>85</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E71" s="4">
         <v>801983371</v>
@@ -24584,10 +29426,10 @@
         <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E72" s="4">
         <v>801983371</v>
@@ -24613,10 +29455,10 @@
         <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E73" s="4">
         <v>801983371</v>
@@ -24642,10 +29484,10 @@
         <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -24674,7 +29516,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24684,8 +29526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7668B-842D-4169-B0C5-15301A67D144}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24697,40 +29539,41 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -24752,10 +29595,10 @@
         <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="E3" s="4">
         <v>801983371</v>
@@ -24766,11 +29609,11 @@
       <c r="G3" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>703</v>
+      <c r="H3" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24781,10 +29624,10 @@
         <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E4" s="4">
         <v>801983371</v>
@@ -24795,11 +29638,11 @@
       <c r="G4" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>703</v>
+      <c r="H4" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24810,10 +29653,10 @@
         <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E5" s="4">
         <v>801983371</v>
@@ -24824,11 +29667,11 @@
       <c r="G5" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>703</v>
+      <c r="H5" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24839,10 +29682,10 @@
         <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E6" s="4">
         <v>801983371</v>
@@ -24853,11 +29696,11 @@
       <c r="G6" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>703</v>
+      <c r="H6" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24868,10 +29711,10 @@
         <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E7" s="4">
         <v>801983371</v>
@@ -24882,11 +29725,11 @@
       <c r="G7" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>703</v>
+      <c r="H7" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24897,10 +29740,10 @@
         <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E8" s="4">
         <v>801983371</v>
@@ -24911,11 +29754,11 @@
       <c r="G8" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>703</v>
+      <c r="H8" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24926,10 +29769,10 @@
         <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E9" s="4">
         <v>801983371</v>
@@ -24940,11 +29783,11 @@
       <c r="G9" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>703</v>
+      <c r="H9" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24955,10 +29798,10 @@
         <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E10" s="4">
         <v>801983371</v>
@@ -24969,11 +29812,11 @@
       <c r="G10" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>703</v>
+      <c r="H10" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -24984,10 +29827,10 @@
         <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E11" s="4">
         <v>801983371</v>
@@ -24998,11 +29841,11 @@
       <c r="G11" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>703</v>
+      <c r="H11" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25013,10 +29856,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E12" s="4">
         <v>801983371</v>
@@ -25027,11 +29870,11 @@
       <c r="G12" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>703</v>
+      <c r="H12" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25042,10 +29885,10 @@
         <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E13" s="4">
         <v>801983371</v>
@@ -25056,11 +29899,11 @@
       <c r="G13" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>703</v>
+      <c r="H13" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25071,10 +29914,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E14" s="4">
         <v>801983371</v>
@@ -25085,11 +29928,11 @@
       <c r="G14" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>703</v>
+      <c r="H14" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25100,10 +29943,10 @@
         <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E15" s="4">
         <v>801983371</v>
@@ -25114,11 +29957,11 @@
       <c r="G15" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>703</v>
+      <c r="H15" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25129,10 +29972,10 @@
         <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E16" s="4">
         <v>801983371</v>
@@ -25143,11 +29986,11 @@
       <c r="G16" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>703</v>
+      <c r="H16" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25158,10 +30001,10 @@
         <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E17" s="4">
         <v>801983371</v>
@@ -25172,11 +30015,11 @@
       <c r="G17" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>703</v>
+      <c r="H17" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25187,10 +30030,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E18" s="4">
         <v>801983371</v>
@@ -25201,11 +30044,11 @@
       <c r="G18" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>703</v>
+      <c r="H18" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25216,10 +30059,10 @@
         <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E19" s="4">
         <v>801983371</v>
@@ -25230,11 +30073,11 @@
       <c r="G19" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>703</v>
+      <c r="H19" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25245,10 +30088,10 @@
         <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E20" s="4">
         <v>801983371</v>
@@ -25259,11 +30102,11 @@
       <c r="G20" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>703</v>
+      <c r="H20" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25274,10 +30117,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>797</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>798</v>
       </c>
       <c r="E21" s="4">
         <v>801983371</v>
@@ -25288,11 +30131,11 @@
       <c r="G21" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>703</v>
+      <c r="H21" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25303,10 +30146,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E22" s="4">
         <v>801983371</v>
@@ -25317,11 +30160,11 @@
       <c r="G22" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>703</v>
+      <c r="H22" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25332,10 +30175,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E23" s="4">
         <v>801983371</v>
@@ -25346,11 +30189,11 @@
       <c r="G23" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>703</v>
+      <c r="H23" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25361,10 +30204,10 @@
         <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E24" s="4">
         <v>801983371</v>
@@ -25375,11 +30218,11 @@
       <c r="G24" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>703</v>
+      <c r="H24" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25390,10 +30233,10 @@
         <v>85</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E25" s="4">
         <v>801983371</v>
@@ -25404,11 +30247,11 @@
       <c r="G25" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>703</v>
+      <c r="H25" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25419,10 +30262,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E26" s="4">
         <v>801983371</v>
@@ -25433,11 +30276,11 @@
       <c r="G26" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>703</v>
+      <c r="H26" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25448,10 +30291,10 @@
         <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E27" s="4">
         <v>801983371</v>
@@ -25462,11 +30305,11 @@
       <c r="G27" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>703</v>
+      <c r="H27" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25477,10 +30320,10 @@
         <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E28" s="4">
         <v>801983371</v>
@@ -25491,11 +30334,11 @@
       <c r="G28" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>703</v>
+      <c r="H28" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25506,10 +30349,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E29" s="4">
         <v>801983371</v>
@@ -25520,11 +30363,11 @@
       <c r="G29" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>703</v>
+      <c r="H29" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25535,10 +30378,10 @@
         <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E30" s="4">
         <v>801983371</v>
@@ -25549,11 +30392,11 @@
       <c r="G30" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>703</v>
+      <c r="H30" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25564,10 +30407,10 @@
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E31" s="4">
         <v>801983371</v>
@@ -25578,11 +30421,11 @@
       <c r="G31" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>703</v>
+      <c r="H31" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25593,10 +30436,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E32" s="4">
         <v>801983371</v>
@@ -25607,11 +30450,11 @@
       <c r="G32" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>703</v>
+      <c r="H32" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25622,10 +30465,10 @@
         <v>85</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E33" s="4">
         <v>801983371</v>
@@ -25636,11 +30479,11 @@
       <c r="G33" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>703</v>
+      <c r="H33" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25651,10 +30494,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E34" s="4">
         <v>801983371</v>
@@ -25665,11 +30508,11 @@
       <c r="G34" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>703</v>
+      <c r="H34" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25680,10 +30523,10 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E35" s="4">
         <v>801983371</v>
@@ -25694,11 +30537,11 @@
       <c r="G35" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>703</v>
+      <c r="H35" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25709,10 +30552,10 @@
         <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E36" s="4">
         <v>801983371</v>
@@ -25723,11 +30566,11 @@
       <c r="G36" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>703</v>
+      <c r="H36" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25738,10 +30581,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E37" s="4">
         <v>801983371</v>
@@ -25752,11 +30595,11 @@
       <c r="G37" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>703</v>
+      <c r="H37" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25767,10 +30610,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E38" s="4">
         <v>801983371</v>
@@ -25781,11 +30624,11 @@
       <c r="G38" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>703</v>
+      <c r="H38" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25796,10 +30639,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>816</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>817</v>
       </c>
       <c r="E39" s="4">
         <v>801983371</v>
@@ -25810,11 +30653,11 @@
       <c r="G39" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>703</v>
+      <c r="H39" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25825,10 +30668,10 @@
         <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E40" s="4">
         <v>801983371</v>
@@ -25839,11 +30682,11 @@
       <c r="G40" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>703</v>
+      <c r="H40" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25854,10 +30697,10 @@
         <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E41" s="4">
         <v>801983371</v>
@@ -25868,11 +30711,11 @@
       <c r="G41" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>703</v>
+      <c r="H41" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25883,10 +30726,10 @@
         <v>85</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E42" s="4">
         <v>801983371</v>
@@ -25897,11 +30740,11 @@
       <c r="G42" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>703</v>
+      <c r="H42" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25912,10 +30755,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E43" s="4">
         <v>801983371</v>
@@ -25926,11 +30769,11 @@
       <c r="G43" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>703</v>
+      <c r="H43" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25941,10 +30784,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E44" s="4">
         <v>801983371</v>
@@ -25955,11 +30798,11 @@
       <c r="G44" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>703</v>
+      <c r="H44" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25970,10 +30813,10 @@
         <v>85</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E45" s="4">
         <v>801983371</v>
@@ -25984,11 +30827,11 @@
       <c r="G45" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>703</v>
+      <c r="H45" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -25999,10 +30842,10 @@
         <v>85</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E46" s="4">
         <v>801983371</v>
@@ -26013,11 +30856,11 @@
       <c r="G46" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>703</v>
+      <c r="H46" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26028,10 +30871,10 @@
         <v>85</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E47" s="4">
         <v>801983371</v>
@@ -26042,11 +30885,11 @@
       <c r="G47" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>703</v>
+      <c r="H47" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26057,10 +30900,10 @@
         <v>85</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E48" s="4">
         <v>801983371</v>
@@ -26071,11 +30914,11 @@
       <c r="G48" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>703</v>
+      <c r="H48" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26086,10 +30929,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E49" s="4">
         <v>801983371</v>
@@ -26100,11 +30943,11 @@
       <c r="G49" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>703</v>
+      <c r="H49" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26115,10 +30958,10 @@
         <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E50" s="4">
         <v>801983371</v>
@@ -26129,11 +30972,11 @@
       <c r="G50" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>703</v>
+      <c r="H50" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26144,10 +30987,10 @@
         <v>85</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E51" s="4">
         <v>801983371</v>
@@ -26158,11 +31001,11 @@
       <c r="G51" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>703</v>
+      <c r="H51" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26173,10 +31016,10 @@
         <v>85</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E52" s="4">
         <v>801983371</v>
@@ -26187,11 +31030,11 @@
       <c r="G52" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>703</v>
+      <c r="H52" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26202,10 +31045,10 @@
         <v>85</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E53" s="4">
         <v>801983371</v>
@@ -26216,11 +31059,11 @@
       <c r="G53" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>703</v>
+      <c r="H53" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26231,10 +31074,10 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E54" s="4">
         <v>801983371</v>
@@ -26245,11 +31088,11 @@
       <c r="G54" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>703</v>
+      <c r="H54" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26260,10 +31103,10 @@
         <v>85</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E55" s="4">
         <v>801983371</v>
@@ -26274,11 +31117,11 @@
       <c r="G55" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>703</v>
+      <c r="H55" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26289,10 +31132,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E56" s="4">
         <v>801983371</v>
@@ -26303,11 +31146,11 @@
       <c r="G56" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>703</v>
+      <c r="H56" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26318,10 +31161,10 @@
         <v>85</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>836</v>
       </c>
       <c r="E57" s="4">
         <v>801983371</v>
@@ -26332,11 +31175,11 @@
       <c r="G57" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>703</v>
+      <c r="H57" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26347,10 +31190,10 @@
         <v>85</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E58" s="4">
         <v>801983371</v>
@@ -26361,11 +31204,11 @@
       <c r="G58" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>703</v>
+      <c r="H58" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26376,10 +31219,10 @@
         <v>85</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E59" s="4">
         <v>801983371</v>
@@ -26390,11 +31233,11 @@
       <c r="G59" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>703</v>
+      <c r="H59" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26405,10 +31248,10 @@
         <v>85</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E60" s="4">
         <v>801983371</v>
@@ -26419,11 +31262,11 @@
       <c r="G60" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>703</v>
+      <c r="H60" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26434,10 +31277,10 @@
         <v>85</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E61" s="4">
         <v>801983371</v>
@@ -26448,11 +31291,11 @@
       <c r="G61" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>703</v>
+      <c r="H61" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26463,10 +31306,10 @@
         <v>85</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E62" s="4">
         <v>801983371</v>
@@ -26477,11 +31320,11 @@
       <c r="G62" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>703</v>
+      <c r="H62" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26492,10 +31335,10 @@
         <v>85</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E63" s="4">
         <v>801983371</v>
@@ -26506,11 +31349,11 @@
       <c r="G63" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>703</v>
+      <c r="H63" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26521,10 +31364,10 @@
         <v>85</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E64" s="4">
         <v>801983371</v>
@@ -26535,11 +31378,11 @@
       <c r="G64" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>703</v>
+      <c r="H64" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26550,10 +31393,10 @@
         <v>85</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E65" s="4">
         <v>801983371</v>
@@ -26564,11 +31407,11 @@
       <c r="G65" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>703</v>
+      <c r="H65" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26579,10 +31422,10 @@
         <v>85</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E66" s="4">
         <v>801983371</v>
@@ -26593,11 +31436,11 @@
       <c r="G66" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>703</v>
+      <c r="H66" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26608,10 +31451,10 @@
         <v>85</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E67" s="4">
         <v>801983371</v>
@@ -26622,11 +31465,11 @@
       <c r="G67" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>703</v>
+      <c r="H67" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26637,10 +31480,10 @@
         <v>85</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E68" s="4">
         <v>801983371</v>
@@ -26651,11 +31494,11 @@
       <c r="G68" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>703</v>
+      <c r="H68" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26666,10 +31509,10 @@
         <v>85</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E69" s="4">
         <v>801983371</v>
@@ -26680,11 +31523,11 @@
       <c r="G69" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>703</v>
+      <c r="H69" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26695,10 +31538,10 @@
         <v>85</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E70" s="4">
         <v>801983371</v>
@@ -26709,11 +31552,11 @@
       <c r="G70" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>703</v>
+      <c r="H70" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26724,10 +31567,10 @@
         <v>85</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E71" s="4">
         <v>801983371</v>
@@ -26738,11 +31581,11 @@
       <c r="G71" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>703</v>
+      <c r="H71" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26753,10 +31596,10 @@
         <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E72" s="4">
         <v>801983371</v>
@@ -26767,11 +31610,11 @@
       <c r="G72" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>703</v>
+      <c r="H72" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26782,10 +31625,10 @@
         <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E73" s="4">
         <v>801983371</v>
@@ -26796,11 +31639,11 @@
       <c r="G73" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>703</v>
+      <c r="H73" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -26811,10 +31654,10 @@
         <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -26825,11 +31668,11 @@
       <c r="G74" s="6">
         <v>0.34027777777777779</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>703</v>
+      <c r="H74" s="13">
+        <v>45652</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.3263888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -26843,7 +31686,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97710F6-519E-4934-9D4C-A983DCFDEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D07522-957C-45F1-91E7-EC8E2E74FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="baking_24" sheetId="12" r:id="rId9"/>
     <sheet name="baking_26" sheetId="14" r:id="rId10"/>
     <sheet name="baking_27" sheetId="15" r:id="rId11"/>
+    <sheet name="baking_30" sheetId="17" r:id="rId12"/>
+    <sheet name="31 Desember 2024" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="1157">
   <si>
     <t>No</t>
   </si>
@@ -3050,6 +3052,462 @@
   </si>
   <si>
     <t>0KC1FKH49A302L</t>
+  </si>
+  <si>
+    <t>MF49C0128</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301F</t>
+  </si>
+  <si>
+    <t>Not Yet</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3019</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3018</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3017</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301G</t>
+  </si>
+  <si>
+    <t>MF4980156</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983024</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983022</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301P</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301R</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301S</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301W</t>
+  </si>
+  <si>
+    <t>0KC1FKH498301X</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302N</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302K</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302H</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302F</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302E</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302C</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983028</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983026</t>
+  </si>
+  <si>
+    <t>MF4980209</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983043</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983042</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983041</t>
+  </si>
+  <si>
+    <t>0KC1FKH4983040</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303X</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303W</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303V</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303T</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303S</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303R</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303N</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303M</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303L</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303K</t>
+  </si>
+  <si>
+    <t>0KC1FKH498303J</t>
+  </si>
+  <si>
+    <t>MF49C0193</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3039</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3038</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3037</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3036</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3035</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3034</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3033</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3032</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3031</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C303A</t>
+  </si>
+  <si>
+    <t>MF49A0225</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3035</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3034</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3033</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3032</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3031</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3030</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A302X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A303A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3039</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3038</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3037</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3036</t>
+  </si>
+  <si>
+    <t>MF49B0126</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B301A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3019</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3017</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3016</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3014</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3015</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3013</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3012</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3011</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3010</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B300Y</t>
+  </si>
+  <si>
+    <t>MF49A0146</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A300A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3007</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3009</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3008</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3006</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3005</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49A3002</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302R</t>
+  </si>
+  <si>
+    <t>0KC1FKH498302P</t>
+  </si>
+  <si>
+    <t>MF49D0035</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3017</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3016</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3015</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3014</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3013</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3012</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3011</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3010</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300Z</t>
   </si>
 </sst>
 </file>
@@ -3155,7 +3613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3200,12 +3658,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5798,7 +6312,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7969,7 +8483,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7979,8 +8493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3731BA-F9BF-4FA7-A5E9-044C2023A3A0}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10139,10 +10653,4428 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBC175A-A6B5-467F-A1BE-4B90D83515D9}">
+  <dimension ref="A1:I146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H11" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H12" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H13" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H15" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H16" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H17" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H23" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H25" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H26" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H27" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H30" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H31" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H32" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H33" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H34" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H35" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H36" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H37" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H38" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H39" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H40" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H41" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H42" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H43" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H45" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H46" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H47" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H48" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H50" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H51" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H52" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H53" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H54" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H55" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H56" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H57" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H58" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H61" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H62" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H63" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H64" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H65" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H66" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H68" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H69" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H70" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H71" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H72" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H73" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45656</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H74" s="13">
+        <v>45657</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D74">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD158DEB-B13F-4620-825A-80F609EA3C62}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G45" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G47" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G53" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G55" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G56" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G61" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G62" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G64" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G69" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G70" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G72" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G73" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="18">
+        <v>45657</v>
+      </c>
+      <c r="G74" s="19">
+        <v>0.46875</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D74">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14400,7 +19332,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -18661,7 +23593,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -20837,7 +25769,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23007,7 +27939,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25177,7 +30109,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27347,7 +32279,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29516,7 +34448,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31686,7 +36618,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D07522-957C-45F1-91E7-EC8E2E74FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA8D54-33CC-4BF0-8884-6A95F6542704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="baking_26" sheetId="14" r:id="rId10"/>
     <sheet name="baking_27" sheetId="15" r:id="rId11"/>
     <sheet name="baking_30" sheetId="17" r:id="rId12"/>
-    <sheet name="31 Desember 2024" sheetId="19" r:id="rId13"/>
+    <sheet name="baking_31" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="1158">
   <si>
     <t>No</t>
   </si>
@@ -3508,6 +3508,9 @@
   </si>
   <si>
     <t>0KC1FKH49D300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C301X</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3658,28 +3661,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4152,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -6312,7 +6299,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8483,7 +8470,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8493,8 +8480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3731BA-F9BF-4FA7-A5E9-044C2023A3A0}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10653,10 +10640,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10667,7 +10654,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12564,7 +12551,7 @@
       <c r="C66" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="E66" s="4">
@@ -12898,10 +12885,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12911,8 +12898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD158DEB-B13F-4620-825A-80F609EA3C62}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12988,10 +12975,10 @@
       <c r="E3" s="4">
         <v>801983371</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="13">
         <v>45657</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="6">
         <v>0.46875</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -13017,10 +13004,10 @@
       <c r="E4" s="4">
         <v>801983371</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>45657</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="6">
         <v>0.46875</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -13046,10 +13033,10 @@
       <c r="E5" s="4">
         <v>801983371</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>45657</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="6">
         <v>0.46875</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -13075,10 +13062,10 @@
       <c r="E6" s="4">
         <v>801983371</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>45657</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="6">
         <v>0.46875</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -13104,10 +13091,10 @@
       <c r="E7" s="4">
         <v>801983371</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>45657</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="6">
         <v>0.46875</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -13133,10 +13120,10 @@
       <c r="E8" s="4">
         <v>801983371</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>45657</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="6">
         <v>0.46875</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -13162,10 +13149,10 @@
       <c r="E9" s="4">
         <v>801983371</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>45657</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="6">
         <v>0.46875</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -13191,10 +13178,10 @@
       <c r="E10" s="4">
         <v>801983371</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>45657</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="6">
         <v>0.46875</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -13220,10 +13207,10 @@
       <c r="E11" s="4">
         <v>801983371</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <v>45657</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="6">
         <v>0.46875</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -13249,10 +13236,10 @@
       <c r="E12" s="4">
         <v>801983371</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <v>45657</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="6">
         <v>0.46875</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -13278,10 +13265,10 @@
       <c r="E13" s="4">
         <v>801983371</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="13">
         <v>45657</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="6">
         <v>0.46875</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -13307,10 +13294,10 @@
       <c r="E14" s="4">
         <v>801983371</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="13">
         <v>45657</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="6">
         <v>0.46875</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -13336,10 +13323,10 @@
       <c r="E15" s="4">
         <v>801983371</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <v>45657</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="6">
         <v>0.46875</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -13365,10 +13352,10 @@
       <c r="E16" s="4">
         <v>801983371</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="13">
         <v>45657</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="6">
         <v>0.46875</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -13394,10 +13381,10 @@
       <c r="E17" s="4">
         <v>801983371</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="13">
         <v>45657</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="6">
         <v>0.46875</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -13423,10 +13410,10 @@
       <c r="E18" s="4">
         <v>801983371</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <v>45657</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="6">
         <v>0.46875</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -13452,10 +13439,10 @@
       <c r="E19" s="4">
         <v>801983371</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="13">
         <v>45657</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="6">
         <v>0.46875</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -13481,10 +13468,10 @@
       <c r="E20" s="4">
         <v>801983371</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="13">
         <v>45657</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="6">
         <v>0.46875</v>
       </c>
       <c r="H20" s="13" t="s">
@@ -13510,10 +13497,10 @@
       <c r="E21" s="4">
         <v>801983371</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="13">
         <v>45657</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="6">
         <v>0.46875</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -13539,10 +13526,10 @@
       <c r="E22" s="4">
         <v>801983371</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="13">
         <v>45657</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="6">
         <v>0.46875</v>
       </c>
       <c r="H22" s="13" t="s">
@@ -13568,10 +13555,10 @@
       <c r="E23" s="4">
         <v>801983371</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="13">
         <v>45657</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="6">
         <v>0.46875</v>
       </c>
       <c r="H23" s="13" t="s">
@@ -13597,10 +13584,10 @@
       <c r="E24" s="4">
         <v>801983371</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="13">
         <v>45657</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="6">
         <v>0.46875</v>
       </c>
       <c r="H24" s="13" t="s">
@@ -13626,10 +13613,10 @@
       <c r="E25" s="4">
         <v>801983371</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="13">
         <v>45657</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.46875</v>
       </c>
       <c r="H25" s="13" t="s">
@@ -13655,10 +13642,10 @@
       <c r="E26" s="4">
         <v>801983371</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="13">
         <v>45657</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.46875</v>
       </c>
       <c r="H26" s="13" t="s">
@@ -13684,10 +13671,10 @@
       <c r="E27" s="4">
         <v>801983371</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="13">
         <v>45657</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="6">
         <v>0.46875</v>
       </c>
       <c r="H27" s="13" t="s">
@@ -13713,10 +13700,10 @@
       <c r="E28" s="4">
         <v>801983371</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="13">
         <v>45657</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="6">
         <v>0.46875</v>
       </c>
       <c r="H28" s="13" t="s">
@@ -13742,10 +13729,10 @@
       <c r="E29" s="4">
         <v>801983371</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="13">
         <v>45657</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="6">
         <v>0.46875</v>
       </c>
       <c r="H29" s="13" t="s">
@@ -13771,10 +13758,10 @@
       <c r="E30" s="4">
         <v>801983371</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="13">
         <v>45657</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="6">
         <v>0.46875</v>
       </c>
       <c r="H30" s="13" t="s">
@@ -13800,10 +13787,10 @@
       <c r="E31" s="4">
         <v>801983371</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="13">
         <v>45657</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="6">
         <v>0.46875</v>
       </c>
       <c r="H31" s="13" t="s">
@@ -13829,10 +13816,10 @@
       <c r="E32" s="4">
         <v>801983371</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <v>45657</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="6">
         <v>0.46875</v>
       </c>
       <c r="H32" s="13" t="s">
@@ -13858,10 +13845,10 @@
       <c r="E33" s="4">
         <v>801983371</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="13">
         <v>45657</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="6">
         <v>0.46875</v>
       </c>
       <c r="H33" s="13" t="s">
@@ -13887,10 +13874,10 @@
       <c r="E34" s="4">
         <v>801983371</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="13">
         <v>45657</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="6">
         <v>0.46875</v>
       </c>
       <c r="H34" s="13" t="s">
@@ -13916,10 +13903,10 @@
       <c r="E35" s="4">
         <v>801983371</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="13">
         <v>45657</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="6">
         <v>0.46875</v>
       </c>
       <c r="H35" s="13" t="s">
@@ -13945,10 +13932,10 @@
       <c r="E36" s="4">
         <v>801983371</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="13">
         <v>45657</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="6">
         <v>0.46875</v>
       </c>
       <c r="H36" s="13" t="s">
@@ -13974,10 +13961,10 @@
       <c r="E37" s="4">
         <v>801983371</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="13">
         <v>45657</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="6">
         <v>0.46875</v>
       </c>
       <c r="H37" s="13" t="s">
@@ -14003,10 +13990,10 @@
       <c r="E38" s="4">
         <v>801983371</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="13">
         <v>45657</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="6">
         <v>0.46875</v>
       </c>
       <c r="H38" s="13" t="s">
@@ -14032,10 +14019,10 @@
       <c r="E39" s="4">
         <v>801983371</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="13">
         <v>45657</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="6">
         <v>0.46875</v>
       </c>
       <c r="H39" s="13" t="s">
@@ -14061,10 +14048,10 @@
       <c r="E40" s="4">
         <v>801983371</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="13">
         <v>45657</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="6">
         <v>0.46875</v>
       </c>
       <c r="H40" s="13" t="s">
@@ -14090,10 +14077,10 @@
       <c r="E41" s="4">
         <v>801983371</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="13">
         <v>45657</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="6">
         <v>0.46875</v>
       </c>
       <c r="H41" s="13" t="s">
@@ -14119,10 +14106,10 @@
       <c r="E42" s="4">
         <v>801983371</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="13">
         <v>45657</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="6">
         <v>0.46875</v>
       </c>
       <c r="H42" s="13" t="s">
@@ -14148,10 +14135,10 @@
       <c r="E43" s="4">
         <v>801983371</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="13">
         <v>45657</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="6">
         <v>0.46875</v>
       </c>
       <c r="H43" s="13" t="s">
@@ -14177,10 +14164,10 @@
       <c r="E44" s="4">
         <v>801983371</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="13">
         <v>45657</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="6">
         <v>0.46875</v>
       </c>
       <c r="H44" s="13" t="s">
@@ -14206,10 +14193,10 @@
       <c r="E45" s="4">
         <v>801983371</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="13">
         <v>45657</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="6">
         <v>0.46875</v>
       </c>
       <c r="H45" s="13" t="s">
@@ -14235,10 +14222,10 @@
       <c r="E46" s="4">
         <v>801983371</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="13">
         <v>45657</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="6">
         <v>0.46875</v>
       </c>
       <c r="H46" s="13" t="s">
@@ -14264,10 +14251,10 @@
       <c r="E47" s="4">
         <v>801983371</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="13">
         <v>45657</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="6">
         <v>0.46875</v>
       </c>
       <c r="H47" s="13" t="s">
@@ -14293,10 +14280,10 @@
       <c r="E48" s="4">
         <v>801983371</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="13">
         <v>45657</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="6">
         <v>0.46875</v>
       </c>
       <c r="H48" s="13" t="s">
@@ -14322,10 +14309,10 @@
       <c r="E49" s="4">
         <v>801983371</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="13">
         <v>45657</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="6">
         <v>0.46875</v>
       </c>
       <c r="H49" s="13" t="s">
@@ -14351,10 +14338,10 @@
       <c r="E50" s="4">
         <v>801983371</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="13">
         <v>45657</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="6">
         <v>0.46875</v>
       </c>
       <c r="H50" s="13" t="s">
@@ -14380,10 +14367,10 @@
       <c r="E51" s="4">
         <v>801983371</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="13">
         <v>45657</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="6">
         <v>0.46875</v>
       </c>
       <c r="H51" s="13" t="s">
@@ -14409,10 +14396,10 @@
       <c r="E52" s="4">
         <v>801983371</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="13">
         <v>45657</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="6">
         <v>0.46875</v>
       </c>
       <c r="H52" s="13" t="s">
@@ -14438,10 +14425,10 @@
       <c r="E53" s="4">
         <v>801983371</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="13">
         <v>45657</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="6">
         <v>0.46875</v>
       </c>
       <c r="H53" s="13" t="s">
@@ -14467,10 +14454,10 @@
       <c r="E54" s="4">
         <v>801983371</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="13">
         <v>45657</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="6">
         <v>0.46875</v>
       </c>
       <c r="H54" s="13" t="s">
@@ -14496,10 +14483,10 @@
       <c r="E55" s="4">
         <v>801983371</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="13">
         <v>45657</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="6">
         <v>0.46875</v>
       </c>
       <c r="H55" s="13" t="s">
@@ -14525,10 +14512,10 @@
       <c r="E56" s="4">
         <v>801983371</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="13">
         <v>45657</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="6">
         <v>0.46875</v>
       </c>
       <c r="H56" s="13" t="s">
@@ -14554,10 +14541,10 @@
       <c r="E57" s="4">
         <v>801983371</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="13">
         <v>45657</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="6">
         <v>0.46875</v>
       </c>
       <c r="H57" s="13" t="s">
@@ -14583,10 +14570,10 @@
       <c r="E58" s="4">
         <v>801983371</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="13">
         <v>45657</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="6">
         <v>0.46875</v>
       </c>
       <c r="H58" s="13" t="s">
@@ -14612,10 +14599,10 @@
       <c r="E59" s="4">
         <v>801983371</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="13">
         <v>45657</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="6">
         <v>0.46875</v>
       </c>
       <c r="H59" s="13" t="s">
@@ -14641,10 +14628,10 @@
       <c r="E60" s="4">
         <v>801983371</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="13">
         <v>45657</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="6">
         <v>0.46875</v>
       </c>
       <c r="H60" s="13" t="s">
@@ -14670,10 +14657,10 @@
       <c r="E61" s="4">
         <v>801983371</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="13">
         <v>45657</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="6">
         <v>0.46875</v>
       </c>
       <c r="H61" s="13" t="s">
@@ -14699,10 +14686,10 @@
       <c r="E62" s="4">
         <v>801983371</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="13">
         <v>45657</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="6">
         <v>0.46875</v>
       </c>
       <c r="H62" s="13" t="s">
@@ -14728,10 +14715,10 @@
       <c r="E63" s="4">
         <v>801983371</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="13">
         <v>45657</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="6">
         <v>0.46875</v>
       </c>
       <c r="H63" s="13" t="s">
@@ -14757,10 +14744,10 @@
       <c r="E64" s="4">
         <v>801983371</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="13">
         <v>45657</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="6">
         <v>0.46875</v>
       </c>
       <c r="H64" s="13" t="s">
@@ -14786,10 +14773,10 @@
       <c r="E65" s="4">
         <v>801983371</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="13">
         <v>45657</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="6">
         <v>0.46875</v>
       </c>
       <c r="H65" s="13" t="s">
@@ -14815,10 +14802,10 @@
       <c r="E66" s="4">
         <v>801983371</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="13">
         <v>45657</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="6">
         <v>0.46875</v>
       </c>
       <c r="H66" s="13" t="s">
@@ -14844,10 +14831,10 @@
       <c r="E67" s="4">
         <v>801983371</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="13">
         <v>45657</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G67" s="6">
         <v>0.46875</v>
       </c>
       <c r="H67" s="13" t="s">
@@ -14873,10 +14860,10 @@
       <c r="E68" s="4">
         <v>801983371</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="13">
         <v>45657</v>
       </c>
-      <c r="G68" s="19">
+      <c r="G68" s="6">
         <v>0.46875</v>
       </c>
       <c r="H68" s="13" t="s">
@@ -14902,10 +14889,10 @@
       <c r="E69" s="4">
         <v>801983371</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="13">
         <v>45657</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="6">
         <v>0.46875</v>
       </c>
       <c r="H69" s="13" t="s">
@@ -14931,10 +14918,10 @@
       <c r="E70" s="4">
         <v>801983371</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="13">
         <v>45657</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="6">
         <v>0.46875</v>
       </c>
       <c r="H70" s="13" t="s">
@@ -14960,10 +14947,10 @@
       <c r="E71" s="4">
         <v>801983371</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="13">
         <v>45657</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="6">
         <v>0.46875</v>
       </c>
       <c r="H71" s="13" t="s">
@@ -14989,10 +14976,10 @@
       <c r="E72" s="4">
         <v>801983371</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="13">
         <v>45657</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="6">
         <v>0.46875</v>
       </c>
       <c r="H72" s="13" t="s">
@@ -15018,10 +15005,10 @@
       <c r="E73" s="4">
         <v>801983371</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="13">
         <v>45657</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="6">
         <v>0.46875</v>
       </c>
       <c r="H73" s="13" t="s">
@@ -15047,10 +15034,10 @@
       <c r="E74" s="4">
         <v>801983371</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="13">
         <v>45657</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="6">
         <v>0.46875</v>
       </c>
       <c r="H74" s="13" t="s">
@@ -15071,7 +15058,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
@@ -15084,7 +15071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
@@ -19332,7 +19319,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -19345,7 +19332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A836090B-1D84-488F-9E82-01BA25B98056}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
@@ -23593,7 +23580,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -23606,8 +23593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78193475-AAD8-4321-A269-9105EF47F6A1}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L1:P1048576"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25769,7 +25756,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27939,7 +27926,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27949,8 +27936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4E42-F398-4C65-BF3C-2DE2ABC0E541}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30080,7 +30067,7 @@
         <v>606</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>624</v>
+        <v>1157</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -30109,7 +30096,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30119,8 +30106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70B6AA-5825-49A8-A25A-422DAEE45532}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32279,7 +32266,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32289,7 +32276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17257125-1BD0-4550-94C7-57FF94F3BCF1}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -34448,7 +34435,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34458,7 +34445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD7668B-842D-4169-B0C5-15301A67D144}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I74"/>
     </sheetView>
   </sheetViews>
@@ -36618,7 +36605,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA8D54-33CC-4BF0-8884-6A95F6542704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94378449-8D97-4CD8-A779-19D1B5ABEE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="baking_27" sheetId="15" r:id="rId11"/>
     <sheet name="baking_30" sheetId="17" r:id="rId12"/>
     <sheet name="baking_31" sheetId="19" r:id="rId13"/>
+    <sheet name="baking_02_jan" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="1234">
   <si>
     <t>No</t>
   </si>
@@ -3511,6 +3512,234 @@
   </si>
   <si>
     <t>0KC1FKH49C301X</t>
+  </si>
+  <si>
+    <t>MF49D0029</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D300A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3009</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3008</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3007</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3005</t>
+  </si>
+  <si>
+    <t>0KC1FKH49D3006</t>
+  </si>
+  <si>
+    <t>MF49C0001</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3039</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3038</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B3037</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3002</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3001</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49B303G</t>
+  </si>
+  <si>
+    <t>MF49E0100</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300Y</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300X</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3010</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300Z</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3013</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3011</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E300R</t>
+  </si>
+  <si>
+    <t>MF49E0132</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3028</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E3029</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302M</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49E302J</t>
   </si>
 </sst>
 </file>
@@ -3616,7 +3845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3661,12 +3890,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6299,7 +6554,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8470,7 +8725,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10640,10 +10895,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12885,10 +13140,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12898,8 +13153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD158DEB-B13F-4620-825A-80F609EA3C62}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12981,11 +13236,11 @@
       <c r="G3" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>1007</v>
+      <c r="H3" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13010,11 +13265,11 @@
       <c r="G4" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>1007</v>
+      <c r="H4" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13039,11 +13294,11 @@
       <c r="G5" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>1007</v>
+      <c r="H5" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13068,11 +13323,11 @@
       <c r="G6" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>1007</v>
+      <c r="H6" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13097,11 +13352,11 @@
       <c r="G7" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>1007</v>
+      <c r="H7" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13126,11 +13381,11 @@
       <c r="G8" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>1007</v>
+      <c r="H8" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13155,11 +13410,11 @@
       <c r="G9" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>1007</v>
+      <c r="H9" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13184,11 +13439,11 @@
       <c r="G10" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>1007</v>
+      <c r="H10" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13213,11 +13468,11 @@
       <c r="G11" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>1007</v>
+      <c r="H11" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13242,11 +13497,11 @@
       <c r="G12" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>1007</v>
+      <c r="H12" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13271,11 +13526,11 @@
       <c r="G13" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>1007</v>
+      <c r="H13" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13300,11 +13555,11 @@
       <c r="G14" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>1007</v>
+      <c r="H14" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13329,11 +13584,11 @@
       <c r="G15" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>1007</v>
+      <c r="H15" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13358,11 +13613,11 @@
       <c r="G16" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>1007</v>
+      <c r="H16" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13387,11 +13642,11 @@
       <c r="G17" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>1007</v>
+      <c r="H17" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13416,11 +13671,11 @@
       <c r="G18" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>1007</v>
+      <c r="H18" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13445,11 +13700,11 @@
       <c r="G19" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>1007</v>
+      <c r="H19" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13474,11 +13729,11 @@
       <c r="G20" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>1007</v>
+      <c r="H20" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13503,11 +13758,11 @@
       <c r="G21" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>1007</v>
+      <c r="H21" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13532,11 +13787,11 @@
       <c r="G22" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>1007</v>
+      <c r="H22" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13561,11 +13816,11 @@
       <c r="G23" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>1007</v>
+      <c r="H23" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13590,11 +13845,11 @@
       <c r="G24" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>1007</v>
+      <c r="H24" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13619,11 +13874,11 @@
       <c r="G25" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>1007</v>
+      <c r="H25" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13648,11 +13903,11 @@
       <c r="G26" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>1007</v>
+      <c r="H26" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13677,11 +13932,11 @@
       <c r="G27" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>1007</v>
+      <c r="H27" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13706,11 +13961,11 @@
       <c r="G28" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>1007</v>
+      <c r="H28" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13735,11 +13990,11 @@
       <c r="G29" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>1007</v>
+      <c r="H29" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13764,11 +14019,11 @@
       <c r="G30" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>1007</v>
+      <c r="H30" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13793,11 +14048,11 @@
       <c r="G31" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>1007</v>
+      <c r="H31" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13822,11 +14077,11 @@
       <c r="G32" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>1007</v>
+      <c r="H32" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13851,11 +14106,11 @@
       <c r="G33" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>1007</v>
+      <c r="H33" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13880,11 +14135,11 @@
       <c r="G34" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>1007</v>
+      <c r="H34" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13909,11 +14164,11 @@
       <c r="G35" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>1007</v>
+      <c r="H35" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13938,11 +14193,11 @@
       <c r="G36" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>1007</v>
+      <c r="H36" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13967,11 +14222,11 @@
       <c r="G37" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>1007</v>
+      <c r="H37" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -13996,11 +14251,11 @@
       <c r="G38" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>1007</v>
+      <c r="H38" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14025,11 +14280,11 @@
       <c r="G39" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>1007</v>
+      <c r="H39" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14054,11 +14309,11 @@
       <c r="G40" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>1007</v>
+      <c r="H40" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14083,11 +14338,11 @@
       <c r="G41" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>1007</v>
+      <c r="H41" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14112,11 +14367,11 @@
       <c r="G42" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>1007</v>
+      <c r="H42" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14141,11 +14396,11 @@
       <c r="G43" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>1007</v>
+      <c r="H43" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14170,11 +14425,11 @@
       <c r="G44" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>1007</v>
+      <c r="H44" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14199,11 +14454,11 @@
       <c r="G45" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>1007</v>
+      <c r="H45" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14228,11 +14483,11 @@
       <c r="G46" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>1007</v>
+      <c r="H46" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14257,11 +14512,11 @@
       <c r="G47" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>1007</v>
+      <c r="H47" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14286,11 +14541,11 @@
       <c r="G48" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>1007</v>
+      <c r="H48" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14315,11 +14570,11 @@
       <c r="G49" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>1007</v>
+      <c r="H49" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14344,11 +14599,11 @@
       <c r="G50" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>1007</v>
+      <c r="H50" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14373,11 +14628,11 @@
       <c r="G51" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>1007</v>
+      <c r="H51" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14402,11 +14657,11 @@
       <c r="G52" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>1007</v>
+      <c r="H52" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I52" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14431,11 +14686,11 @@
       <c r="G53" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>1007</v>
+      <c r="H53" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I53" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14460,11 +14715,11 @@
       <c r="G54" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>1007</v>
+      <c r="H54" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14489,11 +14744,11 @@
       <c r="G55" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>1007</v>
+      <c r="H55" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I55" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14518,11 +14773,11 @@
       <c r="G56" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>1007</v>
+      <c r="H56" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I56" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14547,11 +14802,11 @@
       <c r="G57" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>1007</v>
+      <c r="H57" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I57" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14576,11 +14831,11 @@
       <c r="G58" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>1007</v>
+      <c r="H58" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14605,11 +14860,11 @@
       <c r="G59" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>1007</v>
+      <c r="H59" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I59" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14634,11 +14889,11 @@
       <c r="G60" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>1007</v>
+      <c r="H60" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I60" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14663,11 +14918,11 @@
       <c r="G61" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>1007</v>
+      <c r="H61" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I61" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14692,11 +14947,11 @@
       <c r="G62" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>1007</v>
+      <c r="H62" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14721,11 +14976,11 @@
       <c r="G63" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>1007</v>
+      <c r="H63" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I63" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14750,11 +15005,11 @@
       <c r="G64" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>1007</v>
+      <c r="H64" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14779,11 +15034,11 @@
       <c r="G65" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>1007</v>
+      <c r="H65" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I65" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14808,11 +15063,11 @@
       <c r="G66" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>1007</v>
+      <c r="H66" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I66" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14837,11 +15092,11 @@
       <c r="G67" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>1007</v>
+      <c r="H67" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I67" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14866,11 +15121,11 @@
       <c r="G68" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>1007</v>
+      <c r="H68" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I68" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14895,11 +15150,11 @@
       <c r="G69" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>1007</v>
+      <c r="H69" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I69" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14924,11 +15179,11 @@
       <c r="G70" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>1007</v>
+      <c r="H70" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I70" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14953,11 +15208,11 @@
       <c r="G71" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>1007</v>
+      <c r="H71" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I71" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -14982,11 +15237,11 @@
       <c r="G72" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>1007</v>
+      <c r="H72" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I72" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15011,11 +15266,11 @@
       <c r="G73" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>1007</v>
+      <c r="H73" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I73" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15040,11 +15295,11 @@
       <c r="G74" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>1007</v>
+      <c r="H74" s="18">
+        <v>45659</v>
+      </c>
+      <c r="I74" s="19">
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -15058,10 +15313,2183 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113C119-7BB4-4304-A88E-D0533852E833}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E3" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E4" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E5" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E6" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E7" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E8" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E9" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E10" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E11" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E12" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E13" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E14" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E15" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E16" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E17" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E18" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E19" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E20" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E21" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E22" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E23" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E24" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E25" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E26" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E27" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E28" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E29" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E30" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E31" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E32" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E33" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E34" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E35" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E36" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E37" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E38" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E39" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E40" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E41" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E42" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E43" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E44" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E45" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E46" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E47" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E48" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E49" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E50" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E51" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E52" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E53" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E54" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E55" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E56" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E57" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E58" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E59" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E60" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E61" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E62" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E63" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E64" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E65" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E66" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E67" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E68" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E69" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E70" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E71" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E72" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E73" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E74" s="4">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45659</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D74">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19319,7 +21747,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -23580,7 +26008,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -25756,7 +28184,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27926,7 +30354,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27936,7 +30364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4E42-F398-4C65-BF3C-2DE2ABC0E541}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
@@ -30096,7 +32524,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32266,7 +34694,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34435,7 +36863,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36605,7 +39033,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94378449-8D97-4CD8-A779-19D1B5ABEE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438F402D-7AEA-4E01-BD73-1A787DF6FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="baking_12_december" sheetId="2" r:id="rId1"/>
-    <sheet name="baking_13" sheetId="3" r:id="rId2"/>
-    <sheet name="baking_16" sheetId="4" r:id="rId3"/>
-    <sheet name="baking_17" sheetId="5" r:id="rId4"/>
-    <sheet name="baking_18" sheetId="7" r:id="rId5"/>
-    <sheet name="baking_19" sheetId="9" r:id="rId6"/>
-    <sheet name="baking_20" sheetId="10" r:id="rId7"/>
-    <sheet name="baking_23" sheetId="11" r:id="rId8"/>
-    <sheet name="baking_24" sheetId="12" r:id="rId9"/>
-    <sheet name="baking_26" sheetId="14" r:id="rId10"/>
-    <sheet name="baking_27" sheetId="15" r:id="rId11"/>
-    <sheet name="baking_30" sheetId="17" r:id="rId12"/>
-    <sheet name="baking_31" sheetId="19" r:id="rId13"/>
-    <sheet name="baking_02_jan" sheetId="20" r:id="rId14"/>
+    <sheet name="12-12-24" sheetId="2" r:id="rId1"/>
+    <sheet name="13-12-24" sheetId="3" r:id="rId2"/>
+    <sheet name="16-12-24" sheetId="4" r:id="rId3"/>
+    <sheet name="17-12-24" sheetId="5" r:id="rId4"/>
+    <sheet name="18-12-24" sheetId="7" r:id="rId5"/>
+    <sheet name="19-12-24" sheetId="9" r:id="rId6"/>
+    <sheet name="20-12-24" sheetId="10" r:id="rId7"/>
+    <sheet name="21-12-24" sheetId="11" r:id="rId8"/>
+    <sheet name="24-12-24" sheetId="12" r:id="rId9"/>
+    <sheet name="26-12-24" sheetId="14" r:id="rId10"/>
+    <sheet name="27-12-24" sheetId="15" r:id="rId11"/>
+    <sheet name="30-12-24" sheetId="17" r:id="rId12"/>
+    <sheet name="31-12-24" sheetId="19" r:id="rId13"/>
+    <sheet name="02-01-25" sheetId="20" r:id="rId14"/>
+    <sheet name="03-01-25" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="1310">
   <si>
     <t>No</t>
   </si>
@@ -3740,6 +3741,234 @@
   </si>
   <si>
     <t>0KC1FKH49E302J</t>
+  </si>
+  <si>
+    <t>MF49C0012</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3005</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3006</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3007</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3008</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C3009</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300A</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49C300M</t>
+  </si>
+  <si>
+    <t>MF49F0062</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3009</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3008</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3006</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3005</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3003</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3002</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3001</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300C</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300B</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F300A</t>
+  </si>
+  <si>
+    <t>MF4970266</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973030</t>
+  </si>
+  <si>
+    <t>0KC1FKH497302X</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973033</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973036</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303B</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303A</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303C</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973039</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973038</t>
+  </si>
+  <si>
+    <t>0HC1F584AG3006</t>
+  </si>
+  <si>
+    <t>0HC1F584AG3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3004</t>
+  </si>
+  <si>
+    <t>0KC1FKH49F3007</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973037</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973034</t>
+  </si>
+  <si>
+    <t>0KC1FKH4973035</t>
+  </si>
+  <si>
+    <t>0KC1FKH497303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH497302Y</t>
+  </si>
+  <si>
+    <t>MF49G0263</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303L</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303K</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303H</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303G</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303F</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303E</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303D</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G301J</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303W</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303V</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303T</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303S</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303R</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303Q</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303P</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303N</t>
+  </si>
+  <si>
+    <t>0KC1FKH49G303M</t>
   </si>
 </sst>
 </file>
@@ -3845,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3890,6 +4119,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3901,7 +4133,97 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6554,7 +6876,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8725,7 +9047,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10895,10 +11217,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13140,10 +13462,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13153,7 +13475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD158DEB-B13F-4620-825A-80F609EA3C62}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -13236,10 +13558,10 @@
       <c r="G3" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="13">
         <v>45659</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13265,10 +13587,10 @@
       <c r="G4" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="13">
         <v>45659</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13294,10 +13616,10 @@
       <c r="G5" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="13">
         <v>45659</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13323,10 +13645,10 @@
       <c r="G6" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="13">
         <v>45659</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13352,10 +13674,10 @@
       <c r="G7" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="13">
         <v>45659</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13381,10 +13703,10 @@
       <c r="G8" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="13">
         <v>45659</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13410,10 +13732,10 @@
       <c r="G9" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="13">
         <v>45659</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13439,10 +13761,10 @@
       <c r="G10" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="13">
         <v>45659</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13468,10 +13790,10 @@
       <c r="G11" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="13">
         <v>45659</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13497,10 +13819,10 @@
       <c r="G12" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="13">
         <v>45659</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13526,10 +13848,10 @@
       <c r="G13" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="13">
         <v>45659</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13555,10 +13877,10 @@
       <c r="G14" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="13">
         <v>45659</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13584,10 +13906,10 @@
       <c r="G15" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="13">
         <v>45659</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13613,10 +13935,10 @@
       <c r="G16" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="13">
         <v>45659</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13642,10 +13964,10 @@
       <c r="G17" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="13">
         <v>45659</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13671,10 +13993,10 @@
       <c r="G18" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="13">
         <v>45659</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13700,10 +14022,10 @@
       <c r="G19" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="13">
         <v>45659</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13729,10 +14051,10 @@
       <c r="G20" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="13">
         <v>45659</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13758,10 +14080,10 @@
       <c r="G21" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="13">
         <v>45659</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13787,10 +14109,10 @@
       <c r="G22" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="13">
         <v>45659</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13816,10 +14138,10 @@
       <c r="G23" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="13">
         <v>45659</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13845,10 +14167,10 @@
       <c r="G24" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="13">
         <v>45659</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13874,10 +14196,10 @@
       <c r="G25" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="13">
         <v>45659</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13903,10 +14225,10 @@
       <c r="G26" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="13">
         <v>45659</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13932,10 +14254,10 @@
       <c r="G27" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="13">
         <v>45659</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13961,10 +14283,10 @@
       <c r="G28" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="13">
         <v>45659</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -13990,10 +14312,10 @@
       <c r="G29" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="13">
         <v>45659</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14019,10 +14341,10 @@
       <c r="G30" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="13">
         <v>45659</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14048,10 +14370,10 @@
       <c r="G31" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="13">
         <v>45659</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14077,10 +14399,10 @@
       <c r="G32" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="13">
         <v>45659</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14106,10 +14428,10 @@
       <c r="G33" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="13">
         <v>45659</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14135,10 +14457,10 @@
       <c r="G34" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="13">
         <v>45659</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14164,10 +14486,10 @@
       <c r="G35" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="13">
         <v>45659</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14193,10 +14515,10 @@
       <c r="G36" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="13">
         <v>45659</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14222,10 +14544,10 @@
       <c r="G37" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="13">
         <v>45659</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14251,10 +14573,10 @@
       <c r="G38" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="13">
         <v>45659</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14280,10 +14602,10 @@
       <c r="G39" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="13">
         <v>45659</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14309,10 +14631,10 @@
       <c r="G40" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="13">
         <v>45659</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14338,10 +14660,10 @@
       <c r="G41" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="13">
         <v>45659</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14367,10 +14689,10 @@
       <c r="G42" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="13">
         <v>45659</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14396,10 +14718,10 @@
       <c r="G43" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="13">
         <v>45659</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14425,10 +14747,10 @@
       <c r="G44" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="13">
         <v>45659</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14454,10 +14776,10 @@
       <c r="G45" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="13">
         <v>45659</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14483,10 +14805,10 @@
       <c r="G46" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="13">
         <v>45659</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14512,10 +14834,10 @@
       <c r="G47" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="13">
         <v>45659</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14541,10 +14863,10 @@
       <c r="G48" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="13">
         <v>45659</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14570,10 +14892,10 @@
       <c r="G49" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="13">
         <v>45659</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14599,10 +14921,10 @@
       <c r="G50" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="13">
         <v>45659</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14628,10 +14950,10 @@
       <c r="G51" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="13">
         <v>45659</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14657,10 +14979,10 @@
       <c r="G52" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="13">
         <v>45659</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14686,10 +15008,10 @@
       <c r="G53" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="13">
         <v>45659</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14715,10 +15037,10 @@
       <c r="G54" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="13">
         <v>45659</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14744,10 +15066,10 @@
       <c r="G55" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="13">
         <v>45659</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14773,10 +15095,10 @@
       <c r="G56" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="13">
         <v>45659</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14802,10 +15124,10 @@
       <c r="G57" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="13">
         <v>45659</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14831,10 +15153,10 @@
       <c r="G58" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="13">
         <v>45659</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14860,10 +15182,10 @@
       <c r="G59" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="13">
         <v>45659</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14889,10 +15211,10 @@
       <c r="G60" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="13">
         <v>45659</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14918,10 +15240,10 @@
       <c r="G61" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="13">
         <v>45659</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14947,10 +15269,10 @@
       <c r="G62" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="13">
         <v>45659</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -14976,10 +15298,10 @@
       <c r="G63" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="13">
         <v>45659</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15005,10 +15327,10 @@
       <c r="G64" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="13">
         <v>45659</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15034,10 +15356,10 @@
       <c r="G65" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="13">
         <v>45659</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15063,10 +15385,10 @@
       <c r="G66" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="13">
         <v>45659</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15092,10 +15414,10 @@
       <c r="G67" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="13">
         <v>45659</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I67" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15121,10 +15443,10 @@
       <c r="G68" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="13">
         <v>45659</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I68" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15150,10 +15472,10 @@
       <c r="G69" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H69" s="13">
         <v>45659</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15179,10 +15501,10 @@
       <c r="G70" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="13">
         <v>45659</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15208,10 +15530,10 @@
       <c r="G71" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="13">
         <v>45659</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I71" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15237,10 +15559,10 @@
       <c r="G72" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="13">
         <v>45659</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15266,10 +15588,10 @@
       <c r="G73" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="13">
         <v>45659</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15295,10 +15617,10 @@
       <c r="G74" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="13">
         <v>45659</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="6">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -15313,10 +15635,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15326,8 +15648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5113C119-7BB4-4304-A88E-D0533852E833}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15409,11 +15731,11 @@
       <c r="G3" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>1007</v>
+      <c r="H3" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15438,11 +15760,11 @@
       <c r="G4" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>1007</v>
+      <c r="H4" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15467,11 +15789,11 @@
       <c r="G5" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>1007</v>
+      <c r="H5" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15496,11 +15818,11 @@
       <c r="G6" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>1007</v>
+      <c r="H6" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15525,11 +15847,11 @@
       <c r="G7" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>1007</v>
+      <c r="H7" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15554,11 +15876,11 @@
       <c r="G8" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>1007</v>
+      <c r="H8" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15583,11 +15905,11 @@
       <c r="G9" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>1007</v>
+      <c r="H9" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15612,11 +15934,11 @@
       <c r="G10" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>1007</v>
+      <c r="H10" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15641,11 +15963,11 @@
       <c r="G11" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>1007</v>
+      <c r="H11" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15670,11 +15992,11 @@
       <c r="G12" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>1007</v>
+      <c r="H12" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15699,11 +16021,11 @@
       <c r="G13" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>1007</v>
+      <c r="H13" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15728,11 +16050,11 @@
       <c r="G14" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>1007</v>
+      <c r="H14" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15757,11 +16079,11 @@
       <c r="G15" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1007</v>
+      <c r="H15" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15786,11 +16108,11 @@
       <c r="G16" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>1007</v>
+      <c r="H16" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15815,11 +16137,11 @@
       <c r="G17" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>1007</v>
+      <c r="H17" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15844,11 +16166,11 @@
       <c r="G18" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>1007</v>
+      <c r="H18" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15873,11 +16195,11 @@
       <c r="G19" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>1007</v>
+      <c r="H19" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15902,11 +16224,11 @@
       <c r="G20" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>1007</v>
+      <c r="H20" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15931,11 +16253,11 @@
       <c r="G21" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>1007</v>
+      <c r="H21" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15960,11 +16282,11 @@
       <c r="G22" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>1007</v>
+      <c r="H22" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -15989,11 +16311,11 @@
       <c r="G23" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>1007</v>
+      <c r="H23" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16018,11 +16340,11 @@
       <c r="G24" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>1007</v>
+      <c r="H24" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16047,11 +16369,11 @@
       <c r="G25" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>1007</v>
+      <c r="H25" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16076,11 +16398,11 @@
       <c r="G26" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>1007</v>
+      <c r="H26" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16105,11 +16427,11 @@
       <c r="G27" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>1007</v>
+      <c r="H27" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16134,11 +16456,11 @@
       <c r="G28" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>1007</v>
+      <c r="H28" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16163,11 +16485,11 @@
       <c r="G29" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>1007</v>
+      <c r="H29" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16192,11 +16514,11 @@
       <c r="G30" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>1007</v>
+      <c r="H30" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16221,11 +16543,11 @@
       <c r="G31" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>1007</v>
+      <c r="H31" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16250,11 +16572,11 @@
       <c r="G32" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>1007</v>
+      <c r="H32" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16279,11 +16601,11 @@
       <c r="G33" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>1007</v>
+      <c r="H33" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16308,11 +16630,11 @@
       <c r="G34" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>1007</v>
+      <c r="H34" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16337,11 +16659,11 @@
       <c r="G35" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>1007</v>
+      <c r="H35" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16366,11 +16688,11 @@
       <c r="G36" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>1007</v>
+      <c r="H36" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16395,11 +16717,11 @@
       <c r="G37" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>1007</v>
+      <c r="H37" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16424,11 +16746,11 @@
       <c r="G38" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>1007</v>
+      <c r="H38" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16453,11 +16775,11 @@
       <c r="G39" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>1007</v>
+      <c r="H39" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16482,11 +16804,11 @@
       <c r="G40" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>1007</v>
+      <c r="H40" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16511,11 +16833,11 @@
       <c r="G41" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>1007</v>
+      <c r="H41" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16540,11 +16862,11 @@
       <c r="G42" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>1007</v>
+      <c r="H42" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16569,11 +16891,11 @@
       <c r="G43" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>1007</v>
+      <c r="H43" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16598,11 +16920,11 @@
       <c r="G44" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>1007</v>
+      <c r="H44" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16627,11 +16949,11 @@
       <c r="G45" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>1007</v>
+      <c r="H45" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16656,11 +16978,11 @@
       <c r="G46" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>1007</v>
+      <c r="H46" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16685,11 +17007,11 @@
       <c r="G47" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>1007</v>
+      <c r="H47" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16714,11 +17036,11 @@
       <c r="G48" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>1007</v>
+      <c r="H48" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16743,11 +17065,11 @@
       <c r="G49" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>1007</v>
+      <c r="H49" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16772,11 +17094,11 @@
       <c r="G50" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>1007</v>
+      <c r="H50" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16801,11 +17123,11 @@
       <c r="G51" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>1007</v>
+      <c r="H51" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16830,11 +17152,11 @@
       <c r="G52" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>1007</v>
+      <c r="H52" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16859,11 +17181,11 @@
       <c r="G53" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>1007</v>
+      <c r="H53" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16888,11 +17210,11 @@
       <c r="G54" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H54" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>1007</v>
+      <c r="H54" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16917,11 +17239,11 @@
       <c r="G55" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H55" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>1007</v>
+      <c r="H55" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16946,11 +17268,11 @@
       <c r="G56" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H56" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>1007</v>
+      <c r="H56" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -16975,11 +17297,11 @@
       <c r="G57" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H57" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>1007</v>
+      <c r="H57" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17004,11 +17326,11 @@
       <c r="G58" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H58" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>1007</v>
+      <c r="H58" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17033,11 +17355,11 @@
       <c r="G59" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H59" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>1007</v>
+      <c r="H59" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17062,11 +17384,11 @@
       <c r="G60" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H60" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>1007</v>
+      <c r="H60" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17091,11 +17413,11 @@
       <c r="G61" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H61" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>1007</v>
+      <c r="H61" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17120,11 +17442,11 @@
       <c r="G62" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H62" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>1007</v>
+      <c r="H62" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17149,11 +17471,11 @@
       <c r="G63" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H63" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>1007</v>
+      <c r="H63" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17178,11 +17500,11 @@
       <c r="G64" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H64" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>1007</v>
+      <c r="H64" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17207,11 +17529,11 @@
       <c r="G65" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H65" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>1007</v>
+      <c r="H65" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17236,11 +17558,11 @@
       <c r="G66" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H66" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>1007</v>
+      <c r="H66" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17265,11 +17587,11 @@
       <c r="G67" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H67" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>1007</v>
+      <c r="H67" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17294,11 +17616,11 @@
       <c r="G68" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H68" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>1007</v>
+      <c r="H68" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17323,11 +17645,11 @@
       <c r="G69" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H69" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>1007</v>
+      <c r="H69" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17352,11 +17674,11 @@
       <c r="G70" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H70" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>1007</v>
+      <c r="H70" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17381,11 +17703,11 @@
       <c r="G71" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H71" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>1007</v>
+      <c r="H71" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17410,11 +17732,11 @@
       <c r="G72" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H72" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>1007</v>
+      <c r="H72" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17439,11 +17761,11 @@
       <c r="G73" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H73" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>1007</v>
+      <c r="H73" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -17468,11 +17790,11 @@
       <c r="G74" s="6">
         <v>0.46875</v>
       </c>
-      <c r="H74" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I74" s="19" t="s">
-        <v>1007</v>
+      <c r="H74" s="13">
+        <v>45660</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -17486,10 +17808,2197 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C24B94-54EF-4112-9AA1-A1C421C8AF9A}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E3" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E4" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E5" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E6" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E7" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E8" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E9" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E10" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E11" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E12" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E13" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E14" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E15" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E16" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E17" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E18" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E19" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E20" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E21" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G21" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E22" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E24" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E25" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E26" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E27" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E28" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G28" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E29" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E30" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E31" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E32" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E33" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E34" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E35" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E36" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E37" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E38" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E39" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E40" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E41" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E42" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E43" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E44" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E45" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E46" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E47" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E48" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E49" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E50" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E51" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E52" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E53" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E54" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E55" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E56" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E57" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E58" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E59" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E60" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E61" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E62" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E63" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E64" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E65" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E66" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E67" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E68" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E69" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G69" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E70" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G70" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E71" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E72" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E73" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E74" s="18">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="19">
+        <v>45660</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D20">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D56">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D74">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D38">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D56">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21747,7 +24256,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -21760,7 +24269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A836090B-1D84-488F-9E82-01BA25B98056}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
@@ -26008,7 +28517,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -26021,7 +28530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78193475-AAD8-4321-A269-9105EF47F6A1}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -28184,7 +30693,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28194,8 +30703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89FE45D-4AA5-4CA0-BB33-3B7270B8095F}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30354,7 +32863,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30364,8 +32873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E4E42-F398-4C65-BF3C-2DE2ABC0E541}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32524,7 +35033,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32534,7 +35043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70B6AA-5825-49A8-A25A-422DAEE45532}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
@@ -34694,7 +37203,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36863,7 +39372,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39033,7 +41542,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dataset/raw/12 Desember 2024.xlsx
+++ b/Dataset/raw/12 Desember 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Videos\POLYTRON\Job\Dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438F402D-7AEA-4E01-BD73-1A787DF6FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A40856-B4F2-4323-B2B1-0227BE74CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4701" uniqueCount="1309">
   <si>
     <t>No</t>
   </si>
@@ -3060,9 +3060,6 @@
   </si>
   <si>
     <t>0KC1FKH49C301F</t>
-  </si>
-  <si>
-    <t>Not Yet</t>
   </si>
   <si>
     <t>0KC1FKH49C301E</t>
@@ -3975,9 +3972,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-13809]dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-13809]hh:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4074,7 +4072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4116,16 +4114,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4133,17 +4128,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_~2585981" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4734,36 +4719,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6876,7 +6861,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6905,36 +6890,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -9047,7 +9032,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9075,36 +9060,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -11217,10 +11202,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11248,36 +11233,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -11331,7 +11316,7 @@
         <v>1005</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E4" s="4">
         <v>801983371</v>
@@ -11360,7 +11345,7 @@
         <v>1005</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E5" s="4">
         <v>801983371</v>
@@ -11389,7 +11374,7 @@
         <v>1005</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E6" s="4">
         <v>801983371</v>
@@ -11418,7 +11403,7 @@
         <v>1005</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="4">
         <v>801983371</v>
@@ -11447,7 +11432,7 @@
         <v>1005</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E8" s="4">
         <v>801983371</v>
@@ -11476,7 +11461,7 @@
         <v>1005</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="4">
         <v>801983371</v>
@@ -11505,7 +11490,7 @@
         <v>1005</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E10" s="4">
         <v>801983371</v>
@@ -11534,7 +11519,7 @@
         <v>1005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E11" s="4">
         <v>801983371</v>
@@ -11592,7 +11577,7 @@
         <v>1005</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E13" s="4">
         <v>801983371</v>
@@ -11621,7 +11606,7 @@
         <v>1005</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E14" s="4">
         <v>801983371</v>
@@ -11650,7 +11635,7 @@
         <v>1005</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E15" s="4">
         <v>801983371</v>
@@ -11679,7 +11664,7 @@
         <v>1005</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E16" s="4">
         <v>801983371</v>
@@ -11708,7 +11693,7 @@
         <v>1005</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E17" s="4">
         <v>801983371</v>
@@ -11737,7 +11722,7 @@
         <v>1005</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E18" s="4">
         <v>801983371</v>
@@ -11766,7 +11751,7 @@
         <v>1005</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E19" s="4">
         <v>801983371</v>
@@ -11795,7 +11780,7 @@
         <v>1005</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E20" s="4">
         <v>801983371</v>
@@ -11821,10 +11806,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>1024</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1025</v>
       </c>
       <c r="E21" s="4">
         <v>801983371</v>
@@ -11850,10 +11835,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E22" s="4">
         <v>801983371</v>
@@ -11879,10 +11864,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E23" s="4">
         <v>801983371</v>
@@ -11908,10 +11893,10 @@
         <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E24" s="4">
         <v>801983371</v>
@@ -11937,10 +11922,10 @@
         <v>85</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E25" s="4">
         <v>801983371</v>
@@ -11966,10 +11951,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E26" s="4">
         <v>801983371</v>
@@ -11995,10 +11980,10 @@
         <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E27" s="4">
         <v>801983371</v>
@@ -12024,10 +12009,10 @@
         <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E28" s="4">
         <v>801983371</v>
@@ -12053,10 +12038,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E29" s="4">
         <v>801983371</v>
@@ -12082,10 +12067,10 @@
         <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E30" s="4">
         <v>801983371</v>
@@ -12111,10 +12096,10 @@
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E31" s="4">
         <v>801983371</v>
@@ -12140,10 +12125,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E32" s="4">
         <v>801983371</v>
@@ -12169,10 +12154,10 @@
         <v>85</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E33" s="4">
         <v>801983371</v>
@@ -12198,10 +12183,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E34" s="4">
         <v>801983371</v>
@@ -12227,10 +12212,10 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E35" s="4">
         <v>801983371</v>
@@ -12256,10 +12241,10 @@
         <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E36" s="4">
         <v>801983371</v>
@@ -12285,10 +12270,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E37" s="4">
         <v>801983371</v>
@@ -12314,10 +12299,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E38" s="4">
         <v>801983371</v>
@@ -12343,10 +12328,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>1043</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>1044</v>
       </c>
       <c r="E39" s="4">
         <v>801983371</v>
@@ -12372,10 +12357,10 @@
         <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E40" s="4">
         <v>801983371</v>
@@ -12401,10 +12386,10 @@
         <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E41" s="4">
         <v>801983371</v>
@@ -12430,10 +12415,10 @@
         <v>85</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E42" s="4">
         <v>801983371</v>
@@ -12459,10 +12444,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E43" s="4">
         <v>801983371</v>
@@ -12488,10 +12473,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E44" s="4">
         <v>801983371</v>
@@ -12517,10 +12502,10 @@
         <v>85</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E45" s="4">
         <v>801983371</v>
@@ -12546,10 +12531,10 @@
         <v>85</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E46" s="4">
         <v>801983371</v>
@@ -12575,10 +12560,10 @@
         <v>85</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E47" s="4">
         <v>801983371</v>
@@ -12604,10 +12589,10 @@
         <v>85</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E48" s="4">
         <v>801983371</v>
@@ -12633,10 +12618,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E49" s="4">
         <v>801983371</v>
@@ -12662,10 +12647,10 @@
         <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E50" s="4">
         <v>801983371</v>
@@ -12691,10 +12676,10 @@
         <v>85</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E51" s="4">
         <v>801983371</v>
@@ -12720,10 +12705,10 @@
         <v>85</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E52" s="4">
         <v>801983371</v>
@@ -12749,10 +12734,10 @@
         <v>85</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E53" s="4">
         <v>801983371</v>
@@ -12778,10 +12763,10 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E54" s="4">
         <v>801983371</v>
@@ -12807,10 +12792,10 @@
         <v>85</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E55" s="4">
         <v>801983371</v>
@@ -12836,10 +12821,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E56" s="4">
         <v>801983371</v>
@@ -12865,10 +12850,10 @@
         <v>85</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>1062</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>1063</v>
       </c>
       <c r="E57" s="4">
         <v>801983371</v>
@@ -12894,10 +12879,10 @@
         <v>85</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E58" s="4">
         <v>801983371</v>
@@ -12923,10 +12908,10 @@
         <v>85</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E59" s="4">
         <v>801983371</v>
@@ -12952,10 +12937,10 @@
         <v>85</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E60" s="4">
         <v>801983371</v>
@@ -12981,10 +12966,10 @@
         <v>85</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E61" s="4">
         <v>801983371</v>
@@ -13010,10 +12995,10 @@
         <v>85</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E62" s="4">
         <v>801983371</v>
@@ -13039,10 +13024,10 @@
         <v>85</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E63" s="4">
         <v>801983371</v>
@@ -13068,10 +13053,10 @@
         <v>85</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E64" s="4">
         <v>801983371</v>
@@ -13097,10 +13082,10 @@
         <v>85</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E65" s="4">
         <v>801983371</v>
@@ -13126,10 +13111,10 @@
         <v>85</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E66" s="4">
         <v>801983371</v>
@@ -13155,10 +13140,10 @@
         <v>85</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E67" s="4">
         <v>801983371</v>
@@ -13184,10 +13169,10 @@
         <v>85</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E68" s="4">
         <v>801983371</v>
@@ -13213,10 +13198,10 @@
         <v>85</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E69" s="4">
         <v>801983371</v>
@@ -13242,10 +13227,10 @@
         <v>85</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E70" s="4">
         <v>801983371</v>
@@ -13271,10 +13256,10 @@
         <v>85</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E71" s="4">
         <v>801983371</v>
@@ -13300,10 +13285,10 @@
         <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E72" s="4">
         <v>801983371</v>
@@ -13329,10 +13314,10 @@
         <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E73" s="4">
         <v>801983371</v>
@@ -13358,10 +13343,10 @@
         <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -13462,10 +13447,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13493,36 +13478,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -13544,10 +13529,10 @@
         <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="E3" s="4">
         <v>801983371</v>
@@ -13573,10 +13558,10 @@
         <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E4" s="4">
         <v>801983371</v>
@@ -13602,10 +13587,10 @@
         <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E5" s="4">
         <v>801983371</v>
@@ -13631,10 +13616,10 @@
         <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E6" s="4">
         <v>801983371</v>
@@ -13660,10 +13645,10 @@
         <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E7" s="4">
         <v>801983371</v>
@@ -13689,10 +13674,10 @@
         <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E8" s="4">
         <v>801983371</v>
@@ -13718,10 +13703,10 @@
         <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E9" s="4">
         <v>801983371</v>
@@ -13747,10 +13732,10 @@
         <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E10" s="4">
         <v>801983371</v>
@@ -13776,10 +13761,10 @@
         <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E11" s="4">
         <v>801983371</v>
@@ -13805,10 +13790,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E12" s="4">
         <v>801983371</v>
@@ -13834,10 +13819,10 @@
         <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E13" s="4">
         <v>801983371</v>
@@ -13863,10 +13848,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E14" s="4">
         <v>801983371</v>
@@ -13892,10 +13877,10 @@
         <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E15" s="4">
         <v>801983371</v>
@@ -13921,10 +13906,10 @@
         <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E16" s="4">
         <v>801983371</v>
@@ -13950,10 +13935,10 @@
         <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E17" s="4">
         <v>801983371</v>
@@ -13979,10 +13964,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E18" s="4">
         <v>801983371</v>
@@ -14008,10 +13993,10 @@
         <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E19" s="4">
         <v>801983371</v>
@@ -14037,10 +14022,10 @@
         <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E20" s="4">
         <v>801983371</v>
@@ -14066,10 +14051,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>1100</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1101</v>
       </c>
       <c r="E21" s="4">
         <v>801983371</v>
@@ -14095,10 +14080,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E22" s="4">
         <v>801983371</v>
@@ -14124,10 +14109,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E23" s="4">
         <v>801983371</v>
@@ -14153,10 +14138,10 @@
         <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E24" s="4">
         <v>801983371</v>
@@ -14182,10 +14167,10 @@
         <v>85</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E25" s="4">
         <v>801983371</v>
@@ -14211,10 +14196,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E26" s="4">
         <v>801983371</v>
@@ -14240,10 +14225,10 @@
         <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E27" s="4">
         <v>801983371</v>
@@ -14269,10 +14254,10 @@
         <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E28" s="4">
         <v>801983371</v>
@@ -14298,10 +14283,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E29" s="4">
         <v>801983371</v>
@@ -14327,10 +14312,10 @@
         <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E30" s="4">
         <v>801983371</v>
@@ -14356,10 +14341,10 @@
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E31" s="4">
         <v>801983371</v>
@@ -14385,10 +14370,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E32" s="4">
         <v>801983371</v>
@@ -14414,10 +14399,10 @@
         <v>85</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E33" s="4">
         <v>801983371</v>
@@ -14443,10 +14428,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E34" s="4">
         <v>801983371</v>
@@ -14472,10 +14457,10 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E35" s="4">
         <v>801983371</v>
@@ -14501,10 +14486,10 @@
         <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E36" s="4">
         <v>801983371</v>
@@ -14530,10 +14515,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E37" s="4">
         <v>801983371</v>
@@ -14559,10 +14544,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E38" s="4">
         <v>801983371</v>
@@ -14588,10 +14573,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>1119</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>1120</v>
       </c>
       <c r="E39" s="4">
         <v>801983371</v>
@@ -14617,10 +14602,10 @@
         <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E40" s="4">
         <v>801983371</v>
@@ -14646,10 +14631,10 @@
         <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E41" s="4">
         <v>801983371</v>
@@ -14675,10 +14660,10 @@
         <v>85</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E42" s="4">
         <v>801983371</v>
@@ -14704,10 +14689,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E43" s="4">
         <v>801983371</v>
@@ -14733,10 +14718,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E44" s="4">
         <v>801983371</v>
@@ -14762,10 +14747,10 @@
         <v>85</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E45" s="4">
         <v>801983371</v>
@@ -14791,10 +14776,10 @@
         <v>85</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E46" s="4">
         <v>801983371</v>
@@ -14820,10 +14805,10 @@
         <v>85</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E47" s="4">
         <v>801983371</v>
@@ -14849,10 +14834,10 @@
         <v>85</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E48" s="4">
         <v>801983371</v>
@@ -14878,10 +14863,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E49" s="4">
         <v>801983371</v>
@@ -14907,10 +14892,10 @@
         <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E50" s="4">
         <v>801983371</v>
@@ -14936,10 +14921,10 @@
         <v>85</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E51" s="4">
         <v>801983371</v>
@@ -14965,10 +14950,10 @@
         <v>85</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E52" s="4">
         <v>801983371</v>
@@ -14994,10 +14979,10 @@
         <v>85</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E53" s="4">
         <v>801983371</v>
@@ -15023,10 +15008,10 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E54" s="4">
         <v>801983371</v>
@@ -15052,10 +15037,10 @@
         <v>85</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E55" s="4">
         <v>801983371</v>
@@ -15081,10 +15066,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E56" s="4">
         <v>801983371</v>
@@ -15110,10 +15095,10 @@
         <v>85</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>1138</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>1139</v>
       </c>
       <c r="E57" s="4">
         <v>801983371</v>
@@ -15139,10 +15124,10 @@
         <v>85</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E58" s="4">
         <v>801983371</v>
@@ -15168,10 +15153,10 @@
         <v>85</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E59" s="4">
         <v>801983371</v>
@@ -15197,10 +15182,10 @@
         <v>85</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E60" s="4">
         <v>801983371</v>
@@ -15226,10 +15211,10 @@
         <v>85</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E61" s="4">
         <v>801983371</v>
@@ -15255,10 +15240,10 @@
         <v>85</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E62" s="4">
         <v>801983371</v>
@@ -15284,10 +15269,10 @@
         <v>85</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E63" s="4">
         <v>801983371</v>
@@ -15313,10 +15298,10 @@
         <v>85</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E64" s="4">
         <v>801983371</v>
@@ -15342,10 +15327,10 @@
         <v>85</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E65" s="4">
         <v>801983371</v>
@@ -15371,10 +15356,10 @@
         <v>85</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E66" s="4">
         <v>801983371</v>
@@ -15400,10 +15385,10 @@
         <v>85</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E67" s="4">
         <v>801983371</v>
@@ -15429,10 +15414,10 @@
         <v>85</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E68" s="4">
         <v>801983371</v>
@@ -15458,10 +15443,10 @@
         <v>85</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E69" s="4">
         <v>801983371</v>
@@ -15487,10 +15472,10 @@
         <v>85</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E70" s="4">
         <v>801983371</v>
@@ -15516,10 +15501,10 @@
         <v>85</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E71" s="4">
         <v>801983371</v>
@@ -15545,10 +15530,10 @@
         <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E72" s="4">
         <v>801983371</v>
@@ -15574,10 +15559,10 @@
         <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E73" s="4">
         <v>801983371</v>
@@ -15603,10 +15588,10 @@
         <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -15635,10 +15620,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15666,36 +15651,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -15717,10 +15702,10 @@
         <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="E3" s="4">
         <v>801983371</v>
@@ -15746,10 +15731,10 @@
         <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="4">
         <v>801983371</v>
@@ -15775,10 +15760,10 @@
         <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E5" s="4">
         <v>801983371</v>
@@ -15804,10 +15789,10 @@
         <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E6" s="4">
         <v>801983371</v>
@@ -15833,10 +15818,10 @@
         <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E7" s="4">
         <v>801983371</v>
@@ -15862,10 +15847,10 @@
         <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E8" s="4">
         <v>801983371</v>
@@ -15891,10 +15876,10 @@
         <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E9" s="4">
         <v>801983371</v>
@@ -15920,10 +15905,10 @@
         <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E10" s="4">
         <v>801983371</v>
@@ -15949,10 +15934,10 @@
         <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E11" s="4">
         <v>801983371</v>
@@ -15978,10 +15963,10 @@
         <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E12" s="4">
         <v>801983371</v>
@@ -16007,10 +15992,10 @@
         <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E13" s="4">
         <v>801983371</v>
@@ -16036,10 +16021,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E14" s="4">
         <v>801983371</v>
@@ -16065,10 +16050,10 @@
         <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E15" s="4">
         <v>801983371</v>
@@ -16094,10 +16079,10 @@
         <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E16" s="4">
         <v>801983371</v>
@@ -16123,10 +16108,10 @@
         <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E17" s="4">
         <v>801983371</v>
@@ -16152,10 +16137,10 @@
         <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E18" s="4">
         <v>801983371</v>
@@ -16181,10 +16166,10 @@
         <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E19" s="4">
         <v>801983371</v>
@@ -16210,10 +16195,10 @@
         <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E20" s="4">
         <v>801983371</v>
@@ -16239,10 +16224,10 @@
         <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>1177</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1178</v>
       </c>
       <c r="E21" s="4">
         <v>801983371</v>
@@ -16268,10 +16253,10 @@
         <v>85</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E22" s="4">
         <v>801983371</v>
@@ -16297,10 +16282,10 @@
         <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E23" s="4">
         <v>801983371</v>
@@ -16326,10 +16311,10 @@
         <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E24" s="4">
         <v>801983371</v>
@@ -16355,10 +16340,10 @@
         <v>85</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E25" s="4">
         <v>801983371</v>
@@ -16384,10 +16369,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E26" s="4">
         <v>801983371</v>
@@ -16413,10 +16398,10 @@
         <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E27" s="4">
         <v>801983371</v>
@@ -16442,10 +16427,10 @@
         <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E28" s="4">
         <v>801983371</v>
@@ -16471,10 +16456,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E29" s="4">
         <v>801983371</v>
@@ -16500,10 +16485,10 @@
         <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E30" s="4">
         <v>801983371</v>
@@ -16529,10 +16514,10 @@
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E31" s="4">
         <v>801983371</v>
@@ -16558,10 +16543,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E32" s="4">
         <v>801983371</v>
@@ -16587,10 +16572,10 @@
         <v>85</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E33" s="4">
         <v>801983371</v>
@@ -16616,10 +16601,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E34" s="4">
         <v>801983371</v>
@@ -16645,10 +16630,10 @@
         <v>85</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E35" s="4">
         <v>801983371</v>
@@ -16674,10 +16659,10 @@
         <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E36" s="4">
         <v>801983371</v>
@@ -16703,10 +16688,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E37" s="4">
         <v>801983371</v>
@@ -16732,10 +16717,10 @@
         <v>85</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E38" s="4">
         <v>801983371</v>
@@ -16761,10 +16746,10 @@
         <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>1196</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>1197</v>
       </c>
       <c r="E39" s="4">
         <v>801983371</v>
@@ -16790,10 +16775,10 @@
         <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E40" s="4">
         <v>801983371</v>
@@ -16819,10 +16804,10 @@
         <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E41" s="4">
         <v>801983371</v>
@@ -16848,10 +16833,10 @@
         <v>85</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E42" s="4">
         <v>801983371</v>
@@ -16877,10 +16862,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="4">
         <v>801983371</v>
@@ -16906,10 +16891,10 @@
         <v>85</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E44" s="4">
         <v>801983371</v>
@@ -16935,10 +16920,10 @@
         <v>85</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E45" s="4">
         <v>801983371</v>
@@ -16964,10 +16949,10 @@
         <v>85</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E46" s="4">
         <v>801983371</v>
@@ -16993,10 +16978,10 @@
         <v>85</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E47" s="4">
         <v>801983371</v>
@@ -17022,10 +17007,10 @@
         <v>85</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E48" s="4">
         <v>801983371</v>
@@ -17051,10 +17036,10 @@
         <v>85</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E49" s="4">
         <v>801983371</v>
@@ -17080,10 +17065,10 @@
         <v>85</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E50" s="4">
         <v>801983371</v>
@@ -17109,10 +17094,10 @@
         <v>85</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E51" s="4">
         <v>801983371</v>
@@ -17138,10 +17123,10 @@
         <v>85</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E52" s="4">
         <v>801983371</v>
@@ -17167,10 +17152,10 @@
         <v>85</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E53" s="4">
         <v>801983371</v>
@@ -17196,10 +17181,10 @@
         <v>85</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E54" s="4">
         <v>801983371</v>
@@ -17225,10 +17210,10 @@
         <v>85</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E55" s="4">
         <v>801983371</v>
@@ -17254,10 +17239,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E56" s="4">
         <v>801983371</v>
@@ -17283,10 +17268,10 @@
         <v>85</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>1215</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>1216</v>
       </c>
       <c r="E57" s="4">
         <v>801983371</v>
@@ -17312,10 +17297,10 @@
         <v>85</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E58" s="4">
         <v>801983371</v>
@@ -17341,10 +17326,10 @@
         <v>85</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E59" s="4">
         <v>801983371</v>
@@ -17370,10 +17355,10 @@
         <v>85</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E60" s="4">
         <v>801983371</v>
@@ -17399,10 +17384,10 @@
         <v>85</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E61" s="4">
         <v>801983371</v>
@@ -17428,10 +17413,10 @@
         <v>85</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E62" s="4">
         <v>801983371</v>
@@ -17457,10 +17442,10 @@
         <v>85</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E63" s="4">
         <v>801983371</v>
@@ -17486,10 +17471,10 @@
         <v>85</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E64" s="4">
         <v>801983371</v>
@@ -17515,10 +17500,10 @@
         <v>85</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E65" s="4">
         <v>801983371</v>
@@ -17544,10 +17529,10 @@
         <v>85</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E66" s="4">
         <v>801983371</v>
@@ -17573,10 +17558,10 @@
         <v>85</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E67" s="4">
         <v>801983371</v>
@@ -17602,10 +17587,10 @@
         <v>85</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E68" s="4">
         <v>801983371</v>
@@ -17631,10 +17616,10 @@
         <v>85</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E69" s="4">
         <v>801983371</v>
@@ -17660,10 +17645,10 @@
         <v>85</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E70" s="4">
         <v>801983371</v>
@@ -17689,10 +17674,10 @@
         <v>85</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E71" s="4">
         <v>801983371</v>
@@ -17718,10 +17703,10 @@
         <v>85</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E72" s="4">
         <v>801983371</v>
@@ -17747,10 +17732,10 @@
         <v>85</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E73" s="4">
         <v>801983371</v>
@@ -17776,10 +17761,10 @@
         <v>85</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -17808,10 +17793,10 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D74">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17822,7 +17807,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17839,36 +17824,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -17889,26 +17874,26 @@
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>1234</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E3" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="E3" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F3" s="13">
         <v>45660</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>1007</v>
+      <c r="H3" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -17918,26 +17903,26 @@
       <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E4" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="C4" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E4" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F4" s="13">
         <v>45660</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>1007</v>
+      <c r="H4" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -17947,26 +17932,26 @@
       <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E5" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="C5" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E5" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F5" s="13">
         <v>45660</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>1007</v>
+      <c r="H5" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -17976,26 +17961,26 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E6" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C6" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E6" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F6" s="13">
         <v>45660</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>1007</v>
+      <c r="H6" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -18005,26 +17990,26 @@
       <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E7" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="C7" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E7" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F7" s="13">
         <v>45660</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>1007</v>
+      <c r="H7" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -18034,26 +18019,26 @@
       <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E8" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="C8" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E8" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F8" s="13">
         <v>45660</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>1007</v>
+      <c r="H8" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -18063,26 +18048,26 @@
       <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E9" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="C9" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E9" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F9" s="13">
         <v>45660</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>1007</v>
+      <c r="H9" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -18092,26 +18077,26 @@
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E10" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="C10" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E10" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F10" s="13">
         <v>45660</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>1007</v>
+      <c r="H10" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -18121,26 +18106,26 @@
       <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E11" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="C11" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E11" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F11" s="13">
         <v>45660</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>1007</v>
+      <c r="H11" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -18150,26 +18135,26 @@
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E12" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="C12" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E12" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F12" s="13">
         <v>45660</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>1007</v>
+      <c r="H12" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -18179,26 +18164,26 @@
       <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E13" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="C13" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E13" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F13" s="13">
         <v>45660</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>1007</v>
+      <c r="H13" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -18208,26 +18193,26 @@
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E14" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F14" s="19">
+      <c r="C14" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E14" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F14" s="13">
         <v>45660</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>1007</v>
+      <c r="H14" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -18237,26 +18222,26 @@
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E15" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="C15" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E15" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F15" s="13">
         <v>45660</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>1007</v>
+      <c r="H15" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -18266,26 +18251,26 @@
       <c r="B16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E16" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="C16" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E16" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F16" s="13">
         <v>45660</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>1007</v>
+      <c r="H16" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -18295,26 +18280,26 @@
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E17" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="C17" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E17" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F17" s="13">
         <v>45660</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>1007</v>
+      <c r="H17" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -18324,26 +18309,26 @@
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E18" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F18" s="19">
+      <c r="C18" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E18" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F18" s="13">
         <v>45660</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>1007</v>
+      <c r="H18" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -18353,26 +18338,26 @@
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E19" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="C19" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E19" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F19" s="13">
         <v>45660</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>1007</v>
+      <c r="H19" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -18382,26 +18367,26 @@
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E20" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="C20" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E20" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F20" s="13">
         <v>45660</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>1007</v>
+      <c r="H20" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -18411,26 +18396,26 @@
       <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E21" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="E21" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F21" s="13">
         <v>45660</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>1007</v>
+      <c r="H21" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -18440,26 +18425,26 @@
       <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>1253</v>
+      <c r="C22" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E22" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F22" s="19">
+        <v>1254</v>
+      </c>
+      <c r="E22" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F22" s="13">
         <v>45660</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>1007</v>
+      <c r="H22" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -18469,26 +18454,26 @@
       <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>1253</v>
+      <c r="C23" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E23" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F23" s="19">
+        <v>1255</v>
+      </c>
+      <c r="E23" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F23" s="13">
         <v>45660</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>1007</v>
+      <c r="H23" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -18498,26 +18483,26 @@
       <c r="B24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>1253</v>
+      <c r="C24" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E24" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F24" s="19">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F24" s="13">
         <v>45660</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>1007</v>
+      <c r="H24" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -18527,26 +18512,26 @@
       <c r="B25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>1253</v>
+      <c r="C25" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E25" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F25" s="19">
+        <v>1257</v>
+      </c>
+      <c r="E25" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F25" s="13">
         <v>45660</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>1007</v>
+      <c r="H25" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -18556,26 +18541,26 @@
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>1253</v>
+      <c r="C26" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E26" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F26" s="19">
+        <v>1258</v>
+      </c>
+      <c r="E26" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F26" s="13">
         <v>45660</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>1007</v>
+      <c r="H26" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -18585,26 +18570,26 @@
       <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>1253</v>
+      <c r="C27" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E27" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F27" s="19">
+        <v>1259</v>
+      </c>
+      <c r="E27" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F27" s="13">
         <v>45660</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>1007</v>
+      <c r="H27" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -18614,26 +18599,26 @@
       <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>1253</v>
+      <c r="C28" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E28" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F28" s="19">
+        <v>1260</v>
+      </c>
+      <c r="E28" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F28" s="13">
         <v>45660</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>1007</v>
+      <c r="H28" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -18643,26 +18628,26 @@
       <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>1253</v>
+      <c r="C29" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E29" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F29" s="19">
+        <v>1261</v>
+      </c>
+      <c r="E29" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F29" s="13">
         <v>45660</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>1007</v>
+      <c r="H29" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -18672,26 +18657,26 @@
       <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>1253</v>
+      <c r="C30" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E30" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F30" s="19">
+        <v>1262</v>
+      </c>
+      <c r="E30" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F30" s="13">
         <v>45660</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>1007</v>
+      <c r="H30" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -18701,26 +18686,26 @@
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>1253</v>
+      <c r="C31" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E31" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F31" s="19">
+        <v>1263</v>
+      </c>
+      <c r="E31" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F31" s="13">
         <v>45660</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>1007</v>
+      <c r="H31" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -18730,26 +18715,26 @@
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>1253</v>
+      <c r="C32" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E32" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F32" s="19">
+        <v>1264</v>
+      </c>
+      <c r="E32" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F32" s="13">
         <v>45660</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>1007</v>
+      <c r="H32" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -18759,26 +18744,26 @@
       <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>1253</v>
+      <c r="C33" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E33" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F33" s="19">
+        <v>1265</v>
+      </c>
+      <c r="E33" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F33" s="13">
         <v>45660</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>1007</v>
+      <c r="H33" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -18788,26 +18773,26 @@
       <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>1253</v>
+      <c r="C34" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E34" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F34" s="19">
+        <v>1266</v>
+      </c>
+      <c r="E34" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F34" s="13">
         <v>45660</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>1007</v>
+      <c r="H34" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -18817,26 +18802,26 @@
       <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>1253</v>
+      <c r="C35" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E35" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F35" s="19">
+        <v>1267</v>
+      </c>
+      <c r="E35" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F35" s="13">
         <v>45660</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>1007</v>
+      <c r="H35" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -18846,26 +18831,26 @@
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>1253</v>
+      <c r="C36" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E36" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F36" s="19">
+        <v>1268</v>
+      </c>
+      <c r="E36" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F36" s="13">
         <v>45660</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>1007</v>
+      <c r="H36" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -18875,26 +18860,26 @@
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>1253</v>
+      <c r="C37" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E37" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F37" s="19">
+        <v>1269</v>
+      </c>
+      <c r="E37" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F37" s="13">
         <v>45660</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>1007</v>
+      <c r="H37" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -18904,26 +18889,26 @@
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>1253</v>
+      <c r="C38" s="17" t="s">
+        <v>1252</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E38" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F38" s="19">
+        <v>1270</v>
+      </c>
+      <c r="E38" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F38" s="13">
         <v>45660</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>1007</v>
+      <c r="H38" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -18933,26 +18918,26 @@
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E39" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F39" s="19">
+      <c r="E39" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F39" s="13">
         <v>45660</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>1007</v>
+      <c r="H39" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -18962,26 +18947,26 @@
       <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>1272</v>
+      <c r="C40" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E40" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F40" s="19">
+        <v>1273</v>
+      </c>
+      <c r="E40" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F40" s="13">
         <v>45660</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>1007</v>
+      <c r="H40" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -18991,26 +18976,26 @@
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>1272</v>
+      <c r="C41" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E41" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F41" s="19">
+        <v>1274</v>
+      </c>
+      <c r="E41" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F41" s="13">
         <v>45660</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>1007</v>
+      <c r="H41" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -19020,26 +19005,26 @@
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>1272</v>
+      <c r="C42" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E42" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F42" s="19">
+        <v>1275</v>
+      </c>
+      <c r="E42" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F42" s="13">
         <v>45660</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>1007</v>
+      <c r="H42" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -19049,26 +19034,26 @@
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>1272</v>
+      <c r="C43" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E43" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F43" s="19">
+        <v>1276</v>
+      </c>
+      <c r="E43" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F43" s="13">
         <v>45660</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>1007</v>
+      <c r="H43" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -19078,26 +19063,26 @@
       <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>1272</v>
+      <c r="C44" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E44" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F44" s="19">
+        <v>1277</v>
+      </c>
+      <c r="E44" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F44" s="13">
         <v>45660</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>1007</v>
+      <c r="H44" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -19107,26 +19092,26 @@
       <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>1272</v>
+      <c r="C45" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E45" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F45" s="19">
+        <v>1278</v>
+      </c>
+      <c r="E45" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F45" s="13">
         <v>45660</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>1007</v>
+      <c r="H45" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -19136,26 +19121,26 @@
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>1272</v>
+      <c r="C46" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E46" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F46" s="19">
+        <v>1279</v>
+      </c>
+      <c r="E46" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F46" s="13">
         <v>45660</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>1007</v>
+      <c r="H46" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -19165,26 +19150,26 @@
       <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>1272</v>
+      <c r="C47" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E47" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F47" s="19">
+        <v>1280</v>
+      </c>
+      <c r="E47" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F47" s="13">
         <v>45660</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>1007</v>
+      <c r="H47" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -19194,26 +19179,26 @@
       <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>1272</v>
+      <c r="C48" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E48" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F48" s="19">
+        <v>1281</v>
+      </c>
+      <c r="E48" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F48" s="13">
         <v>45660</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>1007</v>
+      <c r="H48" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -19223,26 +19208,26 @@
       <c r="B49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>1272</v>
+      <c r="C49" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E49" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F49" s="19">
+        <v>1282</v>
+      </c>
+      <c r="E49" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F49" s="13">
         <v>45660</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>1007</v>
+      <c r="H49" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -19252,26 +19237,26 @@
       <c r="B50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>1272</v>
+      <c r="C50" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E50" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F50" s="19">
+        <v>1283</v>
+      </c>
+      <c r="E50" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F50" s="13">
         <v>45660</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>1007</v>
+      <c r="H50" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -19281,26 +19266,26 @@
       <c r="B51" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>1272</v>
+      <c r="C51" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E51" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F51" s="19">
+        <v>1284</v>
+      </c>
+      <c r="E51" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F51" s="13">
         <v>45660</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>1007</v>
+      <c r="H51" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -19310,26 +19295,26 @@
       <c r="B52" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>1272</v>
+      <c r="C52" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E52" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F52" s="19">
+        <v>1285</v>
+      </c>
+      <c r="E52" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F52" s="13">
         <v>45660</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>1007</v>
+      <c r="H52" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I52" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -19339,26 +19324,26 @@
       <c r="B53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>1272</v>
+      <c r="C53" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E53" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F53" s="19">
+        <v>1286</v>
+      </c>
+      <c r="E53" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F53" s="13">
         <v>45660</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>1007</v>
+      <c r="H53" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I53" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -19368,26 +19353,26 @@
       <c r="B54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>1272</v>
+      <c r="C54" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E54" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F54" s="19">
+        <v>1287</v>
+      </c>
+      <c r="E54" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F54" s="13">
         <v>45660</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>1007</v>
+      <c r="H54" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -19397,26 +19382,26 @@
       <c r="B55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>1272</v>
+      <c r="C55" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E55" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F55" s="19">
+        <v>1288</v>
+      </c>
+      <c r="E55" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F55" s="13">
         <v>45660</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>1007</v>
+      <c r="H55" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I55" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -19426,26 +19411,26 @@
       <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>1272</v>
+      <c r="C56" s="17" t="s">
+        <v>1271</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E56" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F56" s="19">
+        <v>1289</v>
+      </c>
+      <c r="E56" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F56" s="13">
         <v>45660</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>1007</v>
+      <c r="H56" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I56" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -19455,26 +19440,26 @@
       <c r="B57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E57" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F57" s="19">
+      <c r="E57" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F57" s="13">
         <v>45660</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>1007</v>
+      <c r="H57" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I57" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -19484,26 +19469,26 @@
       <c r="B58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>1291</v>
+      <c r="C58" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E58" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F58" s="19">
+        <v>1292</v>
+      </c>
+      <c r="E58" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F58" s="13">
         <v>45660</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>1007</v>
+      <c r="H58" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -19513,26 +19498,26 @@
       <c r="B59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>1291</v>
+      <c r="C59" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E59" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F59" s="19">
+        <v>1293</v>
+      </c>
+      <c r="E59" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F59" s="13">
         <v>45660</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>1007</v>
+      <c r="H59" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I59" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -19542,26 +19527,26 @@
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>1291</v>
+      <c r="C60" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E60" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F60" s="19">
+        <v>1294</v>
+      </c>
+      <c r="E60" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F60" s="13">
         <v>45660</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>1007</v>
+      <c r="H60" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I60" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -19571,26 +19556,26 @@
       <c r="B61" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>1291</v>
+      <c r="C61" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E61" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F61" s="19">
+        <v>1295</v>
+      </c>
+      <c r="E61" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F61" s="13">
         <v>45660</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>1007</v>
+      <c r="H61" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I61" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -19600,26 +19585,26 @@
       <c r="B62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>1291</v>
+      <c r="C62" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E62" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F62" s="19">
+        <v>1296</v>
+      </c>
+      <c r="E62" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F62" s="13">
         <v>45660</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>1007</v>
+      <c r="H62" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -19629,26 +19614,26 @@
       <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>1291</v>
+      <c r="C63" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E63" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F63" s="19">
+        <v>1297</v>
+      </c>
+      <c r="E63" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F63" s="13">
         <v>45660</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>1007</v>
+      <c r="H63" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I63" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -19658,26 +19643,26 @@
       <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>1291</v>
+      <c r="C64" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E64" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F64" s="19">
+        <v>1298</v>
+      </c>
+      <c r="E64" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F64" s="13">
         <v>45660</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G64" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>1007</v>
+      <c r="H64" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -19687,26 +19672,26 @@
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>1291</v>
+      <c r="C65" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E65" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F65" s="19">
+        <v>1299</v>
+      </c>
+      <c r="E65" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F65" s="13">
         <v>45660</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>1007</v>
+      <c r="H65" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I65" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -19716,26 +19701,26 @@
       <c r="B66" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>1291</v>
+      <c r="C66" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E66" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F66" s="19">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F66" s="13">
         <v>45660</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>1007</v>
+      <c r="H66" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I66" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -19745,26 +19730,26 @@
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>1291</v>
+      <c r="C67" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E67" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F67" s="19">
+        <v>1301</v>
+      </c>
+      <c r="E67" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F67" s="13">
         <v>45660</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G67" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>1007</v>
+      <c r="H67" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I67" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -19774,26 +19759,26 @@
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>1291</v>
+      <c r="C68" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E68" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F68" s="19">
+        <v>1302</v>
+      </c>
+      <c r="E68" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F68" s="13">
         <v>45660</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G68" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>1007</v>
+      <c r="H68" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I68" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -19803,26 +19788,26 @@
       <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>1291</v>
+      <c r="C69" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E69" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F69" s="19">
+        <v>1303</v>
+      </c>
+      <c r="E69" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F69" s="13">
         <v>45660</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G69" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>1007</v>
+      <c r="H69" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I69" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -19832,26 +19817,26 @@
       <c r="B70" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>1291</v>
+      <c r="C70" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E70" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F70" s="19">
+        <v>1304</v>
+      </c>
+      <c r="E70" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F70" s="13">
         <v>45660</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>1007</v>
+      <c r="H70" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I70" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -19861,26 +19846,26 @@
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>1291</v>
+      <c r="C71" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E71" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F71" s="19">
+        <v>1305</v>
+      </c>
+      <c r="E71" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F71" s="13">
         <v>45660</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G71" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>1007</v>
+      <c r="H71" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I71" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -19890,26 +19875,26 @@
       <c r="B72" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>1291</v>
+      <c r="C72" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E72" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F72" s="19">
+        <v>1306</v>
+      </c>
+      <c r="E72" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F72" s="13">
         <v>45660</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>1007</v>
+      <c r="H72" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I72" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -19919,26 +19904,26 @@
       <c r="B73" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>1291</v>
+      <c r="C73" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E73" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F73" s="19">
+        <v>1307</v>
+      </c>
+      <c r="E73" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F73" s="13">
         <v>45660</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G73" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>1007</v>
+      <c r="H73" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I73" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -19948,26 +19933,26 @@
       <c r="B74" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>1291</v>
+      <c r="C74" s="17" t="s">
+        <v>1290</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E74" s="18">
-        <v>801983371</v>
-      </c>
-      <c r="F74" s="19">
+        <v>1308</v>
+      </c>
+      <c r="E74" s="17">
+        <v>801983371</v>
+      </c>
+      <c r="F74" s="13">
         <v>45660</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="6">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>1007</v>
+      <c r="H74" s="13">
+        <v>45661</v>
+      </c>
+      <c r="I74" s="19">
+        <v>0.34027777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -19981,7 +19966,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D20">
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
@@ -20026,36 +20011,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -24256,7 +24241,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -24287,36 +24272,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -28517,7 +28502,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -28548,36 +28533,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -30693,7 +30678,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30721,36 +30706,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -32863,7 +32848,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32891,36 +32876,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -35004,7 +34989,7 @@
         <v>606</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E74" s="4">
         <v>801983371</v>
@@ -35033,7 +35018,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35061,36 +35046,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -37203,7 +37188,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37230,36 +37215,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -39372,7 +39357,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39400,36 +39385,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -41542,7 +41527,7 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D74">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
